--- a/excercises/excercises 2/ex045.GLV.xlsx
+++ b/excercises/excercises 2/ex045.GLV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215C5972-A6EC-4BBE-ABEB-A1BA1408A8FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6E4BAA-4463-4B3E-A911-003930612C34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{7F603498-48FA-40A8-AB9B-D5E4C9CE020B}"/>
   </bookViews>
@@ -18,130 +18,8 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="choose_incl_analysis">[1]Адаптация!$F$67</definedName>
-    <definedName name="choose_incl_predict">[1]Анализ!$F$63</definedName>
-    <definedName name="chosen_KCD_num_data">'[1]Исх. данные'!$J$8</definedName>
-    <definedName name="chosen_TR_num_data">'[1]Исх. данные'!$J$9</definedName>
-    <definedName name="CJT_gas">[1]Адаптация!$K$28</definedName>
-    <definedName name="correl_analysis">[1]Адаптация!$R$4</definedName>
-    <definedName name="correl_predict">[1]Анализ!$M$4</definedName>
-    <definedName name="d_choke_correct">[1]Адаптация!$E$17</definedName>
-    <definedName name="d_choke_FromBottomToUpModel">[1]Адаптация!#REF!</definedName>
-    <definedName name="d_choke_original">[1]Адаптация!$C$17</definedName>
-    <definedName name="d_choke_predict">[1]Анализ!$C$17</definedName>
-    <definedName name="Dek_original">[1]Адаптация!$C$46:$C$52</definedName>
-    <definedName name="Dek_predict">[1]Анализ!$C$52:$C$58</definedName>
-    <definedName name="Dkl_correct">[1]Адаптация!$H$53:$H$59</definedName>
-    <definedName name="Dkl_original">[1]Адаптация!$H$46:$H$52</definedName>
-    <definedName name="Dkl_predict">[1]Анализ!$H$52:$H$58</definedName>
-    <definedName name="Dnkt_original">[1]Адаптация!$E$46:$E$52</definedName>
-    <definedName name="Dnkt_predict">[1]Анализ!$E$52:$E$58</definedName>
-    <definedName name="field_data">'[1]Исх. данные'!$C$4</definedName>
-    <definedName name="gamma_gas_correct">[1]Адаптация!$E$29</definedName>
-    <definedName name="gamma_gas_original">[1]Адаптация!$C$29</definedName>
-    <definedName name="gamma_gas_predict">[1]Анализ!$C$29</definedName>
-    <definedName name="gf_correct">[1]Адаптация!$E$21</definedName>
-    <definedName name="gf_original">[1]Адаптация!$C$21</definedName>
-    <definedName name="gf_predict">[1]Анализ!$C$21</definedName>
-    <definedName name="H_num_correct">[1]Адаптация!$AU$66</definedName>
-    <definedName name="H_num_original">[1]Адаптация!$AB$66</definedName>
-    <definedName name="H_num_predict">[1]Анализ!$Q$61</definedName>
-    <definedName name="Hdyn_correct">[1]Адаптация!$K$5</definedName>
-    <definedName name="Hek_data">'[1]Исх. данные'!$G$14:$G$20</definedName>
-    <definedName name="Hek_original">[1]Адаптация!$B$46:$B$52</definedName>
-    <definedName name="Hek_predict">[1]Анализ!$B$52:$B$58</definedName>
-    <definedName name="Hkl_correct">[1]Адаптация!$G$53:$G$59</definedName>
-    <definedName name="Hkl_original">[1]Адаптация!$G$46:$G$52</definedName>
-    <definedName name="Hkl_predict">[1]Анализ!$G$52:$G$58</definedName>
-    <definedName name="Hnkt_original">[1]Адаптация!$D$46:$D$52</definedName>
-    <definedName name="Hnkt_predict">[1]Анализ!$D$52:$D$58</definedName>
-    <definedName name="Hp_correct">[1]Адаптация!$E$37</definedName>
-    <definedName name="Hp_data">'[1]Исх. данные'!$C$40</definedName>
-    <definedName name="Hp_original">[1]Адаптация!$C$37</definedName>
-    <definedName name="Hp_predict">[1]Анализ!$C$37</definedName>
-    <definedName name="Hres_tr_plot">'[1]Исх. данные'!$J$63</definedName>
-    <definedName name="Hsp_correct">[1]Адаптация!$E$36</definedName>
-    <definedName name="Hsp_original">[1]Адаптация!$C$36</definedName>
-    <definedName name="Hsp_predict">[1]Анализ!$C$36</definedName>
-    <definedName name="Hst_w_correct">[1]Адаптация!$K$6</definedName>
-    <definedName name="Hvd_correct">[1]Адаптация!$E$35</definedName>
-    <definedName name="Hvd_data">'[1]Исх. данные'!$C$38</definedName>
-    <definedName name="Hvd_original">[1]Адаптация!$C$35</definedName>
-    <definedName name="Hvd_predict">[1]Анализ!$C$35</definedName>
-    <definedName name="kl_num_correct">[1]Адаптация!$AU$67</definedName>
-    <definedName name="kl_num_original">[1]Адаптация!$AB$67</definedName>
-    <definedName name="kl_num_predict">[1]Анализ!$Q$62</definedName>
-    <definedName name="l_max_analysis">[1]Адаптация!$W$67</definedName>
-    <definedName name="l_max_design">[1]Дизайн!$L$74</definedName>
-    <definedName name="l_max_predict">[1]Анализ!$L$61</definedName>
-    <definedName name="num_tr_plot">'[1]Исх. данные'!$L$63</definedName>
-    <definedName name="Pann_btm_correct">[1]Адаптация!$F$22</definedName>
-    <definedName name="Pann_btm_original">[1]Адаптация!$D$22</definedName>
-    <definedName name="Pann_btm_predict">[1]Анализ!$D$22</definedName>
-    <definedName name="Pann_correct">[1]Адаптация!$E$22</definedName>
-    <definedName name="Pann_original">[1]Адаптация!$C$22</definedName>
-    <definedName name="Pann_predict">[1]Анализ!$C$22</definedName>
-    <definedName name="Pb_correct">[1]Адаптация!$E$30</definedName>
-    <definedName name="Pb_original">[1]Адаптация!$C$30</definedName>
-    <definedName name="Pb_predict">[1]Анализ!$C$30</definedName>
-    <definedName name="Pbuf_FromBottomToUpModel">[1]Адаптация!#REF!</definedName>
-    <definedName name="pi_FromBottomUpToModel">[1]Адаптация!#REF!</definedName>
-    <definedName name="pi_predict">[1]Анализ!$C$15</definedName>
-    <definedName name="PipeRoughness_correct">[1]Адаптация!$E$38</definedName>
-    <definedName name="PipeRoughness_original">[1]Адаптация!$C$38</definedName>
-    <definedName name="PipeRoughness_predict">[1]Анализ!$C$38</definedName>
-    <definedName name="Pkl_correct">[1]Адаптация!$I$53:$I$59</definedName>
-    <definedName name="Pkl_original">[1]Адаптация!$I$46:$I$52</definedName>
-    <definedName name="Pkl_predict">[1]Анализ!$I$52:$I$58</definedName>
-    <definedName name="Plin_FromBottomToUpModel">[1]Адаптация!#REF!</definedName>
-    <definedName name="Plin_FromUpToBottomModel">[1]Адаптация!$AS$10</definedName>
-    <definedName name="Plin_FromUpToBottomModel_predict">[1]Анализ!$R$9</definedName>
-    <definedName name="Pres_correct">[1]Адаптация!$E$13</definedName>
-    <definedName name="Pres_FromBottomToUpModel">[1]Адаптация!#REF!</definedName>
-    <definedName name="Pres_original">[1]Адаптация!$C$13</definedName>
-    <definedName name="Pres_predict">[1]Анализ!$C$13</definedName>
-    <definedName name="pvt_correl_analysis">[1]Адаптация!$R$5</definedName>
-    <definedName name="pvt_correl_predict">[1]Анализ!$M$5</definedName>
-    <definedName name="Pwf_btm_kl_predict">[1]Анализ!$AH$14</definedName>
-    <definedName name="Pwf_correct">[1]Адаптация!$E$14</definedName>
-    <definedName name="Pwf_FromBottomToUpModel">[1]Адаптация!#REF!</definedName>
-    <definedName name="Pwf_original">[1]Адаптация!$C$14</definedName>
-    <definedName name="Pwf_pr_design">[1]Дизайн!$J$11</definedName>
-    <definedName name="Pwf_predict">[1]Анализ!$C$14</definedName>
-    <definedName name="Qg_data">'[1]Исх. данные'!$C$22</definedName>
-    <definedName name="Qg_inj_btm_kl_predict">[1]Анализ!$AH$19</definedName>
-    <definedName name="Qg_inj_correct">[1]Адаптация!$E$19</definedName>
-    <definedName name="Qg_inj_data">'[1]Исх. данные'!$C$21</definedName>
-    <definedName name="Qg_inj_original">[1]Адаптация!$C$19</definedName>
-    <definedName name="Qg_inj_predict">[1]Анализ!$C$19</definedName>
-    <definedName name="Qginj_pr_design">[1]Дизайн!$J$12</definedName>
-    <definedName name="Qginjmax_predict">[1]Анализ!$BV$61</definedName>
-    <definedName name="Qkl_btm_kl_predict">[1]Анализ!$AI$33</definedName>
-    <definedName name="Ql_btm_kl_predict">[1]Анализ!$AH$10</definedName>
-    <definedName name="Ql_correct">[1]Адаптация!$E$10</definedName>
-    <definedName name="Ql_data">'[1]Исх. данные'!$C$12</definedName>
-    <definedName name="Ql_FromBottomToUpModel">[1]Адаптация!#REF!</definedName>
-    <definedName name="Ql_original">[1]Адаптация!$C$10</definedName>
-    <definedName name="Ql_pr_design">[1]Дизайн!$L$9</definedName>
-    <definedName name="Ql_pr_design1">[1]Дизайн!$J$9</definedName>
-    <definedName name="Ql_predict">[1]Анализ!$C$10</definedName>
-    <definedName name="Qo_btm_kl_predict">[1]Анализ!$AH$12</definedName>
-    <definedName name="Qo_correct">[1]Адаптация!$E$12</definedName>
-    <definedName name="Qo_data">'[1]Исх. данные'!$C$14</definedName>
-    <definedName name="Qo_FromBottomToUpModel">[1]Адаптация!#REF!</definedName>
-    <definedName name="Qo_original">[1]Адаптация!$C$12</definedName>
-    <definedName name="Qo_pr_design">[1]Дизайн!$J$10</definedName>
-    <definedName name="Qo_predict">[1]Анализ!$C$12</definedName>
-    <definedName name="R_">[1]Адаптация!$K$36</definedName>
-    <definedName name="ro_oil_correct">[1]Адаптация!$E$27</definedName>
-    <definedName name="ro_oil_original">[1]Адаптация!$C$27</definedName>
-    <definedName name="ro_oil_predict">[1]Анализ!$C$27</definedName>
-    <definedName name="ro_water_correct">[1]Адаптация!$E$28</definedName>
-    <definedName name="ro_water_original">[1]Адаптация!$C$28</definedName>
-    <definedName name="ro_water_predict">[1]Анализ!$C$28</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Клапана!$C$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
@@ -169,20 +47,6 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="T_bottom_correct">[1]Адаптация!$K$21</definedName>
-    <definedName name="T_bottom_original">[1]Адаптация!$D$31</definedName>
-    <definedName name="T_bottom_predict">[1]Анализ!$D$31</definedName>
-    <definedName name="T_top_correct">[1]Адаптация!$K$17</definedName>
-    <definedName name="T_top_original">[1]Адаптация!$C$31</definedName>
-    <definedName name="T_top_predict">[1]Анализ!$C$31</definedName>
-    <definedName name="Tgeo">[1]Адаптация!$I$17:$L$22</definedName>
-    <definedName name="Uto">[1]Адаптация!$K$27</definedName>
-    <definedName name="wc_btm_kl_predict">[1]Анализ!$AH$11</definedName>
-    <definedName name="wc_correct">[1]Адаптация!$E$11</definedName>
-    <definedName name="wc_FromBottomToUpModel">[1]Адаптация!#REF!</definedName>
-    <definedName name="wc_original">[1]Адаптация!$C$11</definedName>
-    <definedName name="wc_predict">[1]Анализ!$C$11</definedName>
-    <definedName name="well_num_data">'[1]Исх. данные'!$C$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -200,10 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
-  <si>
-    <t>Расчетный модуль по газлифтным клапанам</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Клапан</t>
   </si>
@@ -328,6 +189,15 @@
   </si>
   <si>
     <t>Максимальное давление открытия</t>
+  </si>
+  <si>
+    <t>Упражнения по работе с макросами Unifloc VBA</t>
+  </si>
+  <si>
+    <t>версия</t>
+  </si>
+  <si>
+    <t>Расчет параметров  газлифтных клапанов</t>
   </si>
 </sst>
 </file>
@@ -576,7 +446,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -628,25 +498,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,15 +536,31 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -781,7 +656,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38.793031469636993</c:v>
+                  <c:v>50.000326533485222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,7 +668,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11196.362826507397</c:v>
+                  <c:v>14433.9015193418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,162 +850,162 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Клапана!$P$23:$P$73</c:f>
+              <c:f>Клапана!$K$23:$K$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>11196.369889092713</c:v>
+                  <c:v>15369.232926834577</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11196.354979735419</c:v>
+                  <c:v>15369.232743300507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11196.358935572605</c:v>
+                  <c:v>15369.236944184475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11196.362448697566</c:v>
+                  <c:v>15369.238514417464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11196.356007967914</c:v>
+                  <c:v>15369.233100171872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11196.367518449346</c:v>
+                  <c:v>15369.226421580182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11196.364362350938</c:v>
+                  <c:v>15369.229378514246</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11196.360692135222</c:v>
+                  <c:v>15369.231968380202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11196.365376301137</c:v>
+                  <c:v>15369.231886809725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11196.364419474436</c:v>
+                  <c:v>15369.238514417464</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11196.360677854625</c:v>
+                  <c:v>15369.226136083007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11196.367004333779</c:v>
+                  <c:v>15369.227645139124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11196.373145156731</c:v>
+                  <c:v>15369.226156475326</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11196.355093983635</c:v>
+                  <c:v>15369.243816501268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11196.369460663025</c:v>
+                  <c:v>15369.238310491364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11196.365276333616</c:v>
+                  <c:v>15369.238595988109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11196.365433424909</c:v>
+                  <c:v>15369.23896305549</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11196.354836925429</c:v>
+                  <c:v>15369.23812695736</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11196.362091672543</c:v>
+                  <c:v>15369.237902638337</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11196.363862515822</c:v>
+                  <c:v>15369.23894266278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11196.369746282913</c:v>
+                  <c:v>15369.2335386139</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11196.358121555588</c:v>
+                  <c:v>15369.238494024754</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11196.35597940558</c:v>
+                  <c:v>15369.233171546186</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11196.367232829682</c:v>
+                  <c:v>15369.236984969903</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11196.363319838336</c:v>
+                  <c:v>15369.234721387047</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11196.373716395745</c:v>
+                  <c:v>15369.243898072093</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11196.36449087937</c:v>
+                  <c:v>15369.236801435884</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11195.845906996999</c:v>
+                  <c:v>15366.306483576418</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11181.488542041881</c:v>
+                  <c:v>15340.244610308511</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11147.306514460461</c:v>
+                  <c:v>15286.952211335669</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11092.966525985956</c:v>
+                  <c:v>15206.067107656791</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11018.047339003395</c:v>
+                  <c:v>15097.059240257147</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10922.039013985175</c:v>
+                  <c:v>14959.230418353929</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10804.298269102548</c:v>
+                  <c:v>14791.741304531415</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10664.029496431194</c:v>
+                  <c:v>14593.560964685154</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10500.225762101461</c:v>
+                  <c:v>14363.364564390526</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10311.738983747033</c:v>
+                  <c:v>14099.60659705547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10097.096625577997</c:v>
+                  <c:v>13800.342137236981</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9854.5711365249135</c:v>
+                  <c:v>13463.237655355713</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9581.978537486777</c:v>
+                  <c:v>13085.378501091047</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9276.6478074847182</c:v>
+                  <c:v>12663.174616510338</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8935.2027938050687</c:v>
+                  <c:v>12192.030170715228</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8553.2691265259309</c:v>
+                  <c:v>11666.089153390445</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8125.144180397122</c:v>
+                  <c:v>11077.602775478274</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7643.0429902572723</c:v>
+                  <c:v>10416.079056245761</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7095.9426916811944</c:v>
+                  <c:v>9666.5821940260084</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6467.3984341697551</c:v>
+                  <c:v>8806.7890794981413</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5730.6618573157002</c:v>
+                  <c:v>7800.4492196521242</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4836.5429229385318</c:v>
+                  <c:v>6580.8057467814133</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3671.8505131263482</c:v>
+                  <c:v>4994.1052060376269</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1763.9985232316967</c:v>
+                  <c:v>2398.2764496805376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,7 +1186,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11196.362826507397</c:v>
+                  <c:v>14433.9015193418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,7 +1463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Клапана!$S$23:$S$99</c:f>
+              <c:f>Клапана!$N$23:$N$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="77"/>
@@ -1716,112 +1591,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9156.5046898861729</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9376.0412258492488</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9595.5861590305249</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9815.1133552300471</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10034.649162862534</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10254.185913040383</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10473.720264011836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10693.254914883239</c:v>
+                  <c:v>13363.047202241381</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10912.800319342179</c:v>
+                  <c:v>13841.905244732139</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11132.331542777469</c:v>
+                  <c:v>14302.66827424821</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11351.861309548009</c:v>
+                  <c:v>14747.022261677206</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11571.398231098181</c:v>
+                  <c:v>15176.415386770477</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11790.946805938444</c:v>
+                  <c:v>15592.095273622874</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12010.474773306974</c:v>
+                  <c:v>15995.109590400814</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12230.009681236659</c:v>
+                  <c:v>16386.430303521098</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12449.543689462704</c:v>
+                  <c:v>16766.864003739454</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12669.082196203741</c:v>
+                  <c:v>17137.169734747975</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12888.627857722164</c:v>
+                  <c:v>17497.96938258185</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>13108.162551437139</c:v>
+                  <c:v>17849.868273219065</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13327.700801118897</c:v>
+                  <c:v>18193.389342660739</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13547.237037181236</c:v>
+                  <c:v>18529.015747839112</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>13766.76294808471</c:v>
+                  <c:v>18857.173646035808</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13986.306296083058</c:v>
+                  <c:v>19178.263856591111</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>14205.835591580784</c:v>
+                  <c:v>19492.641091024907</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14425.375512140683</c:v>
+                  <c:v>19800.64616432105</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14644.909863111288</c:v>
+                  <c:v>20103.05704433006</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>14864.461265586309</c:v>
+                  <c:v>20404.422913680595</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15083.98897589853</c:v>
+                  <c:v>20705.778464357245</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>15303.533994768944</c:v>
+                  <c:v>21007.131506738697</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>15523.073272681424</c:v>
+                  <c:v>21308.485813463009</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>15742.603167986241</c:v>
+                  <c:v>21609.838040136809</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15962.141160610248</c:v>
+                  <c:v>21911.208212337555</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>16181.681895182715</c:v>
+                  <c:v>22212.560704117746</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>16401.218645360688</c:v>
+                  <c:v>22513.922066695741</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>16620.743313822204</c:v>
+                  <c:v>22815.279840169253</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>16840.282227571068</c:v>
+                  <c:v>23116.625418842763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,7 +1959,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Клапана!$R$23:$R$99</c:f>
+              <c:f>Клапана!$M$23:$M$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="77"/>
@@ -2245,79 +2120,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>15176.415386770477</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11790.946805938444</c:v>
+                  <c:v>15592.095273622874</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12010.474773306974</c:v>
+                  <c:v>15995.109590400814</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12230.009681236659</c:v>
+                  <c:v>16386.430303521098</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12449.543689462704</c:v>
+                  <c:v>16766.864003739454</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12669.082196203741</c:v>
+                  <c:v>17137.169734747975</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12888.627857722164</c:v>
+                  <c:v>17497.96938258185</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>13108.162551437139</c:v>
+                  <c:v>17849.868273219065</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13327.700801118897</c:v>
+                  <c:v>18193.389342660739</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13547.237037181236</c:v>
+                  <c:v>18529.015747839112</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>13766.76294808471</c:v>
+                  <c:v>18857.173646035808</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13986.306296083058</c:v>
+                  <c:v>19178.263856591111</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>14205.835591580784</c:v>
+                  <c:v>19492.641091024907</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14425.375512140683</c:v>
+                  <c:v>19800.64616432105</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14644.909863111288</c:v>
+                  <c:v>20103.05704433006</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>14864.461265586309</c:v>
+                  <c:v>20404.422913680595</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15083.98897589853</c:v>
+                  <c:v>20705.778464357245</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>15303.533994768944</c:v>
+                  <c:v>21007.131506738697</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>15523.073272681424</c:v>
+                  <c:v>21308.485813463009</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>15742.603167986241</c:v>
+                  <c:v>21609.838040136809</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15962.141160610248</c:v>
+                  <c:v>21911.208212337555</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>16181.681895182715</c:v>
+                  <c:v>22212.560704117746</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>16401.218645360688</c:v>
+                  <c:v>22513.922066695741</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>16620.743313822204</c:v>
+                  <c:v>22815.279840169253</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>16840.282227571068</c:v>
+                  <c:v>23116.625418842763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,16 +2315,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>511706</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>55427</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>135242</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>77881</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>754742</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>173131</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2478,16 +2353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>530041</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>144715</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>1444</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>62832</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>752861</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>5379</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2521,611 +2396,13 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Исх. данные"/>
-      <sheetName val="Адаптация"/>
-      <sheetName val="Анализ"/>
-      <sheetName val="Дизайн"/>
-      <sheetName val="Клапана"/>
-      <sheetName val="Давление зарядки - температура"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>1105-2</v>
-          </cell>
-          <cell r="J8">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>55.175999999999995</v>
-          </cell>
-          <cell r="G14">
-            <v>1932</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>15.2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>1932</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>1700</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>1932</v>
-          </cell>
-          <cell r="L63">
-            <v>20</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="R4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="R5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>7</v>
-          </cell>
-          <cell r="E10">
-            <v>7</v>
-          </cell>
-          <cell r="AS10">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1</v>
-          </cell>
-          <cell r="E11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>5.7934799999999997</v>
-          </cell>
-          <cell r="E12">
-            <v>5.7934799999999997</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>218.5</v>
-          </cell>
-          <cell r="E13">
-            <v>218.5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>88.75</v>
-          </cell>
-          <cell r="E14">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>6</v>
-          </cell>
-          <cell r="E17">
-            <v>10</v>
-          </cell>
-          <cell r="I17">
-            <v>0</v>
-          </cell>
-          <cell r="K17">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18">
-            <v>500</v>
-          </cell>
-          <cell r="K18">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>8.9333333333333336</v>
-          </cell>
-          <cell r="E19">
-            <v>0</v>
-          </cell>
-          <cell r="I19">
-            <v>1200</v>
-          </cell>
-          <cell r="K19">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>1400</v>
-          </cell>
-          <cell r="K20">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>356.72284476112225</v>
-          </cell>
-          <cell r="E21">
-            <v>500</v>
-          </cell>
-          <cell r="I21">
-            <v>1866.8800048828125</v>
-          </cell>
-          <cell r="K21">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>70</v>
-          </cell>
-          <cell r="D22">
-            <v>81.007385043560802</v>
-          </cell>
-          <cell r="E22">
-            <v>65</v>
-          </cell>
-          <cell r="F22">
-            <v>75.469180340573871</v>
-          </cell>
-          <cell r="I22">
-            <v>3000</v>
-          </cell>
-          <cell r="K22">
-            <v>67.993599853515633</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0.83599999999999997</v>
-          </cell>
-          <cell r="E27">
-            <v>0.83599999999999997</v>
-          </cell>
-          <cell r="K27">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>1.1579999999999999</v>
-          </cell>
-          <cell r="E28">
-            <v>1.1579999999999999</v>
-          </cell>
-          <cell r="K28">
-            <v>-0.35</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0.70099999999999996</v>
-          </cell>
-          <cell r="E29">
-            <v>0.70099999999999996</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>143.80000000000001</v>
-          </cell>
-          <cell r="E30">
-            <v>143.80000000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>15</v>
-          </cell>
-          <cell r="D31">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>2371</v>
-          </cell>
-          <cell r="E35">
-            <v>2371</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>2580</v>
-          </cell>
-          <cell r="E36">
-            <v>2580</v>
-          </cell>
-          <cell r="K36">
-            <v>0.25805</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>1800</v>
-          </cell>
-          <cell r="E37">
-            <v>1800</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>1.6000000000000001E-4</v>
-          </cell>
-          <cell r="E38">
-            <v>1.6000000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>2371</v>
-          </cell>
-          <cell r="C46">
-            <v>161.70000000000002</v>
-          </cell>
-          <cell r="D46">
-            <v>20</v>
-          </cell>
-          <cell r="E46">
-            <v>76.099999999999994</v>
-          </cell>
-          <cell r="G46">
-            <v>600</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>2580</v>
-          </cell>
-          <cell r="E47">
-            <v>61.980000000000004</v>
-          </cell>
-          <cell r="G47">
-            <v>1100</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="G48">
-            <v>1460</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="G53">
-            <v>600</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54">
-            <v>1100</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="G55">
-            <v>1460</v>
-          </cell>
-          <cell r="I55">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="AB66">
-            <v>27</v>
-          </cell>
-          <cell r="AU66">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>2</v>
-          </cell>
-          <cell r="W67">
-            <v>100</v>
-          </cell>
-          <cell r="AB67">
-            <v>3</v>
-          </cell>
-          <cell r="AU67">
-            <v>3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="M4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="R9">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>7.0259503940755215</v>
-          </cell>
-          <cell r="AH10">
-            <v>7.1053156038958143</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1</v>
-          </cell>
-          <cell r="AH11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>5.8149575841526646</v>
-          </cell>
-          <cell r="AH12">
-            <v>5.8806434064083319</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>218.5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>65</v>
-          </cell>
-          <cell r="AH14">
-            <v>61.992839190619208</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>5.2273612909711629E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>27.26594527800798</v>
-          </cell>
-          <cell r="AH19">
-            <v>23.574937468286194</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>500</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>65</v>
-          </cell>
-          <cell r="D22">
-            <v>75.469180340573871</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0.83599999999999997</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>1.1579999999999999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0.70099999999999996</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>143.80000000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>9</v>
-          </cell>
-          <cell r="D31">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="AI33">
-            <v>23.574937468286194</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>2371</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>2580</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>1800</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>1.6000000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>2371</v>
-          </cell>
-          <cell r="C52">
-            <v>161.70000000000002</v>
-          </cell>
-          <cell r="D52">
-            <v>20</v>
-          </cell>
-          <cell r="E52">
-            <v>76.099999999999994</v>
-          </cell>
-          <cell r="G52">
-            <v>600</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>2580</v>
-          </cell>
-          <cell r="E53">
-            <v>61.980000000000004</v>
-          </cell>
-          <cell r="G53">
-            <v>1100</v>
-          </cell>
-          <cell r="H53">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54">
-            <v>1460</v>
-          </cell>
-          <cell r="H54">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="L61">
-            <v>100</v>
-          </cell>
-          <cell r="Q61">
-            <v>27</v>
-          </cell>
-          <cell r="BV61">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="Q62">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="9">
-          <cell r="J9">
-            <v>101.57586172840533</v>
-          </cell>
-          <cell r="L9">
-            <v>101.59814663293933</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>46.714827821825509</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>107.70642852783203</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="L74">
-            <v>100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="20">
-          <cell r="C20">
-            <v>72</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
+      <definedName name="getUFVersion"/>
+      <definedName name="GLV_IPO_p_close"/>
+      <definedName name="GLV_IPO_p_open"/>
       <definedName name="GLV_p_close_atma"/>
       <definedName name="GLV_p_vkr_atma"/>
       <definedName name="GLV_q_gas_vkr_sm3day"/>
@@ -3436,10 +2713,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD794811-A139-4312-B5B6-875BAF8209F9}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="B1:AD99"/>
+  <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH27" sqref="AH27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3461,61 +2738,83 @@
     <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:30" ht="39" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="str">
+        <f>[1]!getUFVersion()</f>
+        <v>7.9</v>
+      </c>
+      <c r="H1"/>
       <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="X2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="W3" s="1" t="str">
         <f>V3&amp;" port 1/8"</f>
@@ -3546,15 +2845,15 @@
         <v>4.3841336116910233E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+    <row r="4" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
       <c r="V4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" s="1" t="str">
         <f>V4&amp;" port 5/32"</f>
@@ -3585,17 +2884,17 @@
         <v>7.2673639045320468E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="14">
         <v>0.8</v>
@@ -3603,7 +2902,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="9"/>
       <c r="V5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W5" s="1" t="str">
         <f>V5&amp;" port 3/16"</f>
@@ -3634,27 +2933,27 @@
         <v>0.10320480997297149</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="9"/>
       <c r="G6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="14">
         <v>25</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W6" s="1" t="str">
         <f>V6&amp;" port 1/4"</f>
@@ -3685,17 +2984,17 @@
         <v>0.20156203063983175</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="26"/>
       <c r="E7" s="9"/>
       <c r="V7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W7" s="1" t="str">
         <f>V7&amp;" port 5/16"</f>
@@ -3726,122 +3025,122 @@
         <v>0.34779971696205947</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="29">
+        <v>20</v>
+      </c>
+      <c r="C8" s="27">
         <f>VLOOKUP(C11,W3:AD7,2,0)</f>
         <v>25.4</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="28"/>
       <c r="E11" s="9"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="20">
+        <v>22</v>
+      </c>
+      <c r="C12" s="29">
         <f>VLOOKUP(C11,W3:AD7,4,0)</f>
         <v>7.94</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="20">
+        <v>23</v>
+      </c>
+      <c r="C13" s="29">
         <f>VLOOKUP(C11,W3:AD7,6,0)</f>
         <v>0.25805</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="9"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="11">
         <v>3</v>
       </c>
       <c r="D14" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="21">
+        <v>26</v>
+      </c>
+      <c r="C16" s="30">
         <f>((C14^2+D14^2+C15^2+D15^2))^(0.5)</f>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="D16" s="30"/>
       <c r="E16" s="9"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
     <row r="17" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="22">
+        <v>26</v>
+      </c>
+      <c r="C17" s="31">
         <f>C16</f>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="D17" s="31"/>
       <c r="E17" s="9"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -3852,55 +3151,47 @@
     </row>
     <row r="19" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="32">
+        <v>72</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" s="18">
-        <v>72</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="1">
-        <f>(J23-O23)^2</f>
-        <v>125.35869869338197</v>
       </c>
     </row>
     <row r="20" spans="2:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="19">
-        <v>10</v>
-      </c>
-      <c r="D20" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="33">
+        <v>50</v>
+      </c>
+      <c r="D20" s="33"/>
       <c r="E20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="32">
-        <f t="array" ref="C21:D27">TRANSPOSE([2]!GLV_p_vkr_atma(C12,C17,C19,C29,H5,H6,1))</f>
-        <v>38.793031469636993</v>
+        <v>29</v>
+      </c>
+      <c r="C21" s="19">
+        <f t="array" ref="C21:D27">TRANSPOSE([1]!GLV_p_vkr_atma(C12,C17,C19,C29,H5,H6,1))</f>
+        <v>50.000326533485222</v>
       </c>
       <c r="D21" s="1" t="str">
         <v>p_atma</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="G21" s="1" t="e">
-        <f ca="1">Pd_gas_valve_atm(C16,C19,C31,H5,H6)</f>
-        <v>#NAME?</v>
-      </c>
       <c r="I21" s="1">
         <f>C19*1</f>
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C22" s="32">
+      <c r="C22" s="19">
         <v>72</v>
       </c>
       <c r="D22" s="1" t="str">
@@ -3908,8 +3199,8 @@
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C23" s="32">
-        <v>71.320285241342134</v>
+      <c r="C23" s="19">
+        <v>70.862006237508979</v>
       </c>
       <c r="D23" s="1" t="str">
         <v>p_v_atma</v>
@@ -3918,29 +3209,29 @@
         <v>1</v>
       </c>
       <c r="J23" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I23,$H$5,$H$6)/1000</f>
-        <v>11.196369889092713</v>
-      </c>
-      <c r="P23" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I23,$H$5,$H$6)</f>
-        <v>11196.369889092713</v>
-      </c>
-      <c r="Q23" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I23,$C$20,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <f>IF(I23&gt;$C$40,Q23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <f>IF(I23&gt;$C$39,Q23,0)</f>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I23,$H$5,$H$6)/1000</f>
+        <v>15.369232926834577</v>
+      </c>
+      <c r="K23" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I23,$H$5,$H$6)</f>
+        <v>15369.232926834577</v>
+      </c>
+      <c r="L23" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I23,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <f>IF(I23&gt;$C$40,L23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <f>IF(I23&gt;$C$39,L23,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C24" s="33">
-        <v>38.793031469636993</v>
+      <c r="C24" s="20">
+        <v>50.000326533485222</v>
       </c>
       <c r="D24" s="1" t="str">
         <v>p_out_atma</v>
@@ -3950,29 +3241,29 @@
         <v>2.4117647058823533</v>
       </c>
       <c r="J24" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I24,$H$5,$H$6)/1000</f>
-        <v>11.196354979735419</v>
-      </c>
-      <c r="P24" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I24,$H$5,$H$6)</f>
-        <v>11196.354979735419</v>
-      </c>
-      <c r="Q24" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I24,$C$20,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <f>IF(I24&gt;$C$40,Q24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <f>IF(I24&gt;$C$39,Q24,0)</f>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I24,$H$5,$H$6)/1000</f>
+        <v>15.369232743300506</v>
+      </c>
+      <c r="K24" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I24,$H$5,$H$6)</f>
+        <v>15369.232743300507</v>
+      </c>
+      <c r="L24" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I24,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f>IF(I24&gt;$C$40,L24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <f>IF(I24&gt;$C$39,L24,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C25" s="31">
-        <v>11196.362826507397</v>
+      <c r="C25" s="18">
+        <v>14433.9015193418</v>
       </c>
       <c r="D25" s="1" t="str">
         <v>q_gas_sm3day</v>
@@ -3982,23 +3273,23 @@
         <v>3.8235294117647065</v>
       </c>
       <c r="J25" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I25,$H$5,$H$6)/1000</f>
-        <v>11.196358935572606</v>
-      </c>
-      <c r="P25" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I25,$H$5,$H$6)</f>
-        <v>11196.358935572605</v>
-      </c>
-      <c r="Q25" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I25,$C$20,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <f>IF(I25&gt;$C$40,Q25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <f>IF(I25&gt;$C$39,Q25,0)</f>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I25,$H$5,$H$6)/1000</f>
+        <v>15.369236944184475</v>
+      </c>
+      <c r="K25" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I25,$H$5,$H$6)</f>
+        <v>15369.236944184475</v>
+      </c>
+      <c r="L25" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I25,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <f>IF(I25&gt;$C$40,L25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <f>IF(I25&gt;$C$39,L25,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4014,29 +3305,29 @@
         <v>5.2352941176470598</v>
       </c>
       <c r="J26" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I26,$H$5,$H$6)/1000</f>
-        <v>11.196362448697567</v>
-      </c>
-      <c r="P26" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I26,$H$5,$H$6)</f>
-        <v>11196.362448697566</v>
-      </c>
-      <c r="Q26" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I26,$C$20,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <f>IF(I26&gt;$C$40,Q26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <f>IF(I26&gt;$C$39,Q26,0)</f>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I26,$H$5,$H$6)/1000</f>
+        <v>15.369238514417464</v>
+      </c>
+      <c r="K26" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I26,$H$5,$H$6)</f>
+        <v>15369.238514417464</v>
+      </c>
+      <c r="L26" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I26,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <f>IF(I26&gt;$C$40,L26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <f>IF(I26&gt;$C$39,L26,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="str">
         <v>vkrutka critical flow</v>
@@ -4046,23 +3337,23 @@
         <v>6.647058823529413</v>
       </c>
       <c r="J27" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I27,$H$5,$H$6)/1000</f>
-        <v>11.196356007967914</v>
-      </c>
-      <c r="P27" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I27,$H$5,$H$6)</f>
-        <v>11196.356007967914</v>
-      </c>
-      <c r="Q27" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I27,$C$20,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <f>IF(I27&gt;$C$40,Q27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
-        <f>IF(I27&gt;$C$39,Q27,0)</f>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I27,$H$5,$H$6)/1000</f>
+        <v>15.369233100171872</v>
+      </c>
+      <c r="K27" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I27,$H$5,$H$6)</f>
+        <v>15369.233100171872</v>
+      </c>
+      <c r="L27" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I27,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <f>IF(I27&gt;$C$40,L27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <f>IF(I27&gt;$C$39,L27,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4072,33 +3363,33 @@
         <v>8.0588235294117663</v>
       </c>
       <c r="J28" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I28,$H$5,$H$6)/1000</f>
-        <v>11.196367518449346</v>
-      </c>
-      <c r="P28" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I28,$H$5,$H$6)</f>
-        <v>11196.367518449346</v>
-      </c>
-      <c r="Q28" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I28,$C$20,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
-        <f>IF(I28&gt;$C$40,Q28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="1">
-        <f>IF(I28&gt;$C$39,Q28,0)</f>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I28,$H$5,$H$6)/1000</f>
+        <v>15.369226421580182</v>
+      </c>
+      <c r="K28" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I28,$H$5,$H$6)</f>
+        <v>15369.226421580182</v>
+      </c>
+      <c r="L28" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I28,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <f>IF(I28&gt;$C$40,L28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <f>IF(I28&gt;$C$39,L28,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="31">
-        <f t="array" ref="C29:D35">TRANSPOSE([2]!GLV_q_gas_vkr_sm3day(C12,C17,C19,C20,H5,H6))</f>
-        <v>11196.371831306264</v>
+        <v>31</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="array" ref="C29:D35">TRANSPOSE([1]!GLV_q_gas_vkr_sm3day(C12,C17,C19,C20,H5,H6))</f>
+        <v>14433.9015193418</v>
       </c>
       <c r="D29" s="1" t="str">
         <v>q_gas_sm3day</v>
@@ -4108,28 +3399,28 @@
         <v>9.4705882352941195</v>
       </c>
       <c r="J29" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I29,$H$5,$H$6)/1000</f>
-        <v>11.196364362350938</v>
-      </c>
-      <c r="P29" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I29,$H$5,$H$6)</f>
-        <v>11196.364362350938</v>
-      </c>
-      <c r="Q29" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I29,$C$20,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <f>IF(I29&gt;$C$40,Q29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <f>IF(I29&gt;$C$39,Q29,0)</f>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I29,$H$5,$H$6)/1000</f>
+        <v>15.369229378514246</v>
+      </c>
+      <c r="K29" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I29,$H$5,$H$6)</f>
+        <v>15369.229378514246</v>
+      </c>
+      <c r="L29" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I29,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <f>IF(I29&gt;$C$40,L29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <f>IF(I29&gt;$C$39,L29,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C30" s="32">
+      <c r="C30" s="19">
         <v>72</v>
       </c>
       <c r="D30" s="1" t="str">
@@ -4140,29 +3431,29 @@
         <v>10.882352941176473</v>
       </c>
       <c r="J30" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I30,$H$5,$H$6)/1000</f>
-        <v>11.196360692135222</v>
-      </c>
-      <c r="P30" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I30,$H$5,$H$6)</f>
-        <v>11196.360692135222</v>
-      </c>
-      <c r="Q30" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I30,$C$20,$H$5,$H$6)</f>
-        <v>961.29117983900528</v>
-      </c>
-      <c r="R30" s="1">
-        <f>IF(I30&gt;$C$40,Q30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <f>IF(I30&gt;$C$39,Q30,0)</f>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I30,$H$5,$H$6)/1000</f>
+        <v>15.369231968380202</v>
+      </c>
+      <c r="K30" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I30,$H$5,$H$6)</f>
+        <v>15369.231968380202</v>
+      </c>
+      <c r="L30" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I30,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <f>IF(I30&gt;$C$40,L30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <f>IF(I30&gt;$C$39,L30,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C31" s="32">
-        <v>71.320292592048645</v>
+      <c r="C31" s="19">
+        <v>70.86199688911438</v>
       </c>
       <c r="D31" s="1" t="str">
         <v>pv_atma</v>
@@ -4172,29 +3463,29 @@
         <v>12.294117647058826</v>
       </c>
       <c r="J31" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I31,$H$5,$H$6)/1000</f>
-        <v>11.196365376301138</v>
-      </c>
-      <c r="P31" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I31,$H$5,$H$6)</f>
-        <v>11196.365376301137</v>
-      </c>
-      <c r="Q31" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I31,$C$20,$H$5,$H$6)</f>
-        <v>1539.3989909875065</v>
-      </c>
-      <c r="R31" s="1">
-        <f>IF(I31&gt;$C$40,Q31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="1">
-        <f>IF(I31&gt;$C$39,Q31,0)</f>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I31,$H$5,$H$6)/1000</f>
+        <v>15.369231886809725</v>
+      </c>
+      <c r="K31" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I31,$H$5,$H$6)</f>
+        <v>15369.231886809725</v>
+      </c>
+      <c r="L31" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I31,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <f>IF(I31&gt;$C$40,L31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <f>IF(I31&gt;$C$39,L31,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C32" s="32">
-        <v>38.793035467885005</v>
+      <c r="C32" s="19">
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="str">
         <v>p_out_atma</v>
@@ -4204,29 +3495,29 @@
         <v>13.705882352941179</v>
       </c>
       <c r="J32" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I32,$H$5,$H$6)/1000</f>
-        <v>11.196364419474437</v>
-      </c>
-      <c r="P32" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I32,$H$5,$H$6)</f>
-        <v>11196.364419474436</v>
-      </c>
-      <c r="Q32" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I32,$C$20,$H$5,$H$6)</f>
-        <v>1943.0761311386648</v>
-      </c>
-      <c r="R32" s="1">
-        <f>IF(I32&gt;$C$40,Q32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
-        <f>IF(I32&gt;$C$39,Q32,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C33" s="31">
-        <v>11196.371831306264</v>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I32,$H$5,$H$6)/1000</f>
+        <v>15.369238514417464</v>
+      </c>
+      <c r="K32" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I32,$H$5,$H$6)</f>
+        <v>15369.238514417464</v>
+      </c>
+      <c r="L32" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I32,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <f>IF(I32&gt;$C$40,L32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <f>IF(I32&gt;$C$39,L32,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C33" s="18">
+        <v>14433.9015193418</v>
       </c>
       <c r="D33" s="1" t="str">
         <v>q_gas_sm3day</v>
@@ -4236,28 +3527,28 @@
         <v>15.117647058823533</v>
       </c>
       <c r="J33" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I33,$H$5,$H$6)/1000</f>
-        <v>11.196360677854626</v>
-      </c>
-      <c r="P33" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I33,$H$5,$H$6)</f>
-        <v>11196.360677854625</v>
-      </c>
-      <c r="Q33" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I33,$C$20,$H$5,$H$6)</f>
-        <v>2267.8075502942975</v>
-      </c>
-      <c r="R33" s="1">
-        <f>IF(I33&gt;$C$40,Q33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="1">
-        <f>IF(I33&gt;$C$39,Q33,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C34" s="31" t="b">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I33,$H$5,$H$6)/1000</f>
+        <v>15.369226136083007</v>
+      </c>
+      <c r="K33" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I33,$H$5,$H$6)</f>
+        <v>15369.226136083007</v>
+      </c>
+      <c r="L33" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I33,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f>IF(I33&gt;$C$40,L33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <f>IF(I33&gt;$C$39,L33,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C34" s="18" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="str">
@@ -4268,29 +3559,29 @@
         <v>16.529411764705884</v>
       </c>
       <c r="J34" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I34,$H$5,$H$6)/1000</f>
-        <v>11.196367004333778</v>
-      </c>
-      <c r="P34" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I34,$H$5,$H$6)</f>
-        <v>11196.367004333779</v>
-      </c>
-      <c r="Q34" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I34,$C$20,$H$5,$H$6)</f>
-        <v>2544.4514281519291</v>
-      </c>
-      <c r="R34" s="1">
-        <f>IF(I34&gt;$C$40,Q34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="1">
-        <f>IF(I34&gt;$C$39,Q34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I34,$H$5,$H$6)/1000</f>
+        <v>15.369227645139125</v>
+      </c>
+      <c r="K34" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I34,$H$5,$H$6)</f>
+        <v>15369.227645139124</v>
+      </c>
+      <c r="L34" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I34,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <f>IF(I34&gt;$C$40,L34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f>IF(I34&gt;$C$39,L34,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1" t="str">
         <v>crit2</v>
@@ -4300,204 +3591,210 @@
         <v>17.941176470588236</v>
       </c>
       <c r="J35" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I35,$H$5,$H$6)/1000</f>
-        <v>11.196373145156731</v>
-      </c>
-      <c r="P35" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I35,$H$5,$H$6)</f>
-        <v>11196.373145156731</v>
-      </c>
-      <c r="Q35" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I35,$C$20,$H$5,$H$6)</f>
-        <v>2787.75090077101</v>
-      </c>
-      <c r="R35" s="1">
-        <f>IF(I35&gt;$C$40,Q35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="1">
-        <f>IF(I35&gt;$C$39,Q35,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I35,$H$5,$H$6)/1000</f>
+        <v>15.369226156475326</v>
+      </c>
+      <c r="K35" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I35,$H$5,$H$6)</f>
+        <v>15369.226156475326</v>
+      </c>
+      <c r="L35" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I35,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <f>IF(I35&gt;$C$40,L35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <f>IF(I35&gt;$C$39,L35,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I36" s="1">
         <f t="shared" si="0"/>
         <v>19.352941176470587</v>
       </c>
       <c r="J36" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I36,$H$5,$H$6)/1000</f>
-        <v>11.196355093983636</v>
-      </c>
-      <c r="P36" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I36,$H$5,$H$6)</f>
-        <v>11196.355093983635</v>
-      </c>
-      <c r="Q36" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I36,$C$20,$H$5,$H$6)</f>
-        <v>3009.4825397772493</v>
-      </c>
-      <c r="R36" s="1">
-        <f>IF(I36&gt;$C$40,Q36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="1">
-        <f>IF(I36&gt;$C$39,Q36,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I36,$H$5,$H$6)/1000</f>
+        <v>15.369243816501267</v>
+      </c>
+      <c r="K36" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I36,$H$5,$H$6)</f>
+        <v>15369.243816501268</v>
+      </c>
+      <c r="L36" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I36,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <f>IF(I36&gt;$C$40,L36,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f>IF(I36&gt;$C$39,L36,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="13">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="0"/>
         <v>20.764705882352938</v>
       </c>
       <c r="J37" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I37,$H$5,$H$6)/1000</f>
-        <v>11.196369460663025</v>
-      </c>
-      <c r="P37" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I37,$H$5,$H$6)</f>
-        <v>11196.369460663025</v>
-      </c>
-      <c r="Q37" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I37,$C$20,$H$5,$H$6)</f>
-        <v>3229.0224603309434</v>
-      </c>
-      <c r="R37" s="1">
-        <f>IF(I37&gt;$C$40,Q37,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
-        <f>IF(I37&gt;$C$39,Q37,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I37,$H$5,$H$6)/1000</f>
+        <v>15.369238310491363</v>
+      </c>
+      <c r="K37" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I37,$H$5,$H$6)</f>
+        <v>15369.238310491364</v>
+      </c>
+      <c r="L37" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I37,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <f>IF(I37&gt;$C$40,L37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f>IF(I37&gt;$C$39,L37,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="16">
-        <f>[2]!GLV_p_close_atma(C37,H6)</f>
-        <v>58.077826383799895</v>
+        <f>[1]!GLV_p_close_atma(C37,H6)</f>
+        <v>67.456817660259091</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="0"/>
         <v>22.17647058823529</v>
       </c>
       <c r="J38" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I38,$H$5,$H$6)/1000</f>
-        <v>11.196365276333616</v>
-      </c>
-      <c r="P38" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I38,$H$5,$H$6)</f>
-        <v>11196.365276333616</v>
-      </c>
-      <c r="Q38" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I38,$C$20,$H$5,$H$6)</f>
-        <v>3448.5524413242347</v>
-      </c>
-      <c r="R38" s="1">
-        <f>IF(I38&gt;$C$40,Q38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="1">
-        <f>IF(I38&gt;$C$39,Q38,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I38,$H$5,$H$6)/1000</f>
+        <v>15.369238595988108</v>
+      </c>
+      <c r="K38" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I38,$H$5,$H$6)</f>
+        <v>15369.238595988109</v>
+      </c>
+      <c r="L38" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I38,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <f>IF(I38&gt;$C$40,L38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <f>IF(I38&gt;$C$39,L38,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="16">
         <f>C38</f>
-        <v>58.077826383799895</v>
-      </c>
-      <c r="D39" s="16"/>
+        <v>67.456817660259091</v>
+      </c>
+      <c r="D39" s="16">
+        <f>[1]!GLV_IPO_p_close(C37,C20,H6,,C12,C14,D14,C15,D15)</f>
+        <v>67.456817660259091</v>
+      </c>
       <c r="E39" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="0"/>
         <v>23.588235294117641</v>
       </c>
       <c r="J39" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I39,$H$5,$H$6)/1000</f>
-        <v>11.19636543342491</v>
-      </c>
-      <c r="P39" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I39,$H$5,$H$6)</f>
-        <v>11196.365433424909</v>
-      </c>
-      <c r="Q39" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I39,$C$20,$H$5,$H$6)</f>
-        <v>3668.0894485601993</v>
-      </c>
-      <c r="R39" s="1">
-        <f>IF(I39&gt;$C$40,Q39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="1">
-        <f>IF(I39&gt;$C$39,Q39,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I39,$H$5,$H$6)/1000</f>
+        <v>15.369238963055491</v>
+      </c>
+      <c r="K39" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I39,$H$5,$H$6)</f>
+        <v>15369.23896305549</v>
+      </c>
+      <c r="L39" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I39,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <f>IF(I39&gt;$C$40,L39,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f>IF(I39&gt;$C$39,L39,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="16">
         <f>C39/(1-C13)-C20*C13/(1-C13)</f>
-        <v>74.79928079223653</v>
-      </c>
-      <c r="D40" s="16"/>
+        <v>73.528293901555486</v>
+      </c>
+      <c r="D40" s="16">
+        <f>[1]!GLV_IPO_p_open(C37,C20,H6,,C12,C14,D14,C15,D15)</f>
+        <v>73.743766139127672</v>
+      </c>
       <c r="E40" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="0"/>
         <v>24.999999999999993</v>
       </c>
       <c r="J40" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I40,$H$5,$H$6)/1000</f>
-        <v>11.19635483692543</v>
-      </c>
-      <c r="P40" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I40,$H$5,$H$6)</f>
-        <v>11196.354836925429</v>
-      </c>
-      <c r="Q40" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I40,$C$20,$H$5,$H$6)</f>
-        <v>3887.6278267708922</v>
-      </c>
-      <c r="R40" s="1">
-        <f>IF(I40&gt;$C$40,Q40,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="1">
-        <f>IF(I40&gt;$C$39,Q40,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I40,$H$5,$H$6)/1000</f>
+        <v>15.369238126957359</v>
+      </c>
+      <c r="K40" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I40,$H$5,$H$6)</f>
+        <v>15369.23812695736</v>
+      </c>
+      <c r="L40" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I40,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <f>IF(I40&gt;$C$40,L40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f>IF(I40&gt;$C$39,L40,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="16" t="str">
+        <v>39</v>
+      </c>
+      <c r="C41" s="34" t="str">
         <f>IF(C19&gt;C40,"открыт",IF(C19&gt;C39,"открыт условно","закрыт"))</f>
         <v>открыт условно</v>
       </c>
@@ -4508,64 +3805,64 @@
         <v>26.411764705882344</v>
       </c>
       <c r="J41" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I41,$H$5,$H$6)/1000</f>
-        <v>11.196362091672544</v>
-      </c>
-      <c r="P41" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I41,$H$5,$H$6)</f>
-        <v>11196.362091672543</v>
-      </c>
-      <c r="Q41" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I41,$C$20,$H$5,$H$6)</f>
-        <v>4107.1557512899481</v>
-      </c>
-      <c r="R41" s="1">
-        <f>IF(I41&gt;$C$40,Q41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="1">
-        <f>IF(I41&gt;$C$39,Q41,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" ht="25.5" x14ac:dyDescent="0.25">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I41,$H$5,$H$6)/1000</f>
+        <v>15.369237902638337</v>
+      </c>
+      <c r="K41" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I41,$H$5,$H$6)</f>
+        <v>15369.237902638337</v>
+      </c>
+      <c r="L41" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I41,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <f>IF(I41&gt;$C$40,L41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <f>IF(I41&gt;$C$39,L41,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="16">
         <f>C39/(1-C13)-1*C13/(1-C13)</f>
-        <v>77.929478244895066</v>
+        <v>90.570480032696395</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="0"/>
         <v>27.823529411764696</v>
       </c>
       <c r="J42" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I42,$H$5,$H$6)/1000</f>
-        <v>11.196363862515822</v>
-      </c>
-      <c r="P42" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I42,$H$5,$H$6)</f>
-        <v>11196.363862515822</v>
-      </c>
-      <c r="Q42" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I42,$C$20,$H$5,$H$6)</f>
-        <v>4326.6919016657685</v>
-      </c>
-      <c r="R42" s="1">
-        <f>IF(I42&gt;$C$40,Q42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="1">
-        <f>IF(I42&gt;$C$39,Q42,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I42,$H$5,$H$6)/1000</f>
+        <v>15.369238942662779</v>
+      </c>
+      <c r="K42" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I42,$H$5,$H$6)</f>
+        <v>15369.23894266278</v>
+      </c>
+      <c r="L42" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I42,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <f>IF(I42&gt;$C$40,L42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <f>IF(I42&gt;$C$39,L42,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -4575,27 +3872,27 @@
         <v>29.235294117647047</v>
       </c>
       <c r="J43" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I43,$H$5,$H$6)/1000</f>
-        <v>11.196369746282913</v>
-      </c>
-      <c r="P43" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I43,$H$5,$H$6)</f>
-        <v>11196.369746282913</v>
-      </c>
-      <c r="Q43" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I43,$C$20,$H$5,$H$6)</f>
-        <v>4546.2275379251614</v>
-      </c>
-      <c r="R43" s="1">
-        <f>IF(I43&gt;$C$40,Q43,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="1">
-        <f>IF(I43&gt;$C$39,Q43,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I43,$H$5,$H$6)/1000</f>
+        <v>15.3692335386139</v>
+      </c>
+      <c r="K43" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I43,$H$5,$H$6)</f>
+        <v>15369.2335386139</v>
+      </c>
+      <c r="L43" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I43,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <f>IF(I43&gt;$C$40,L43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <f>IF(I43&gt;$C$39,L43,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -4605,1470 +3902,1470 @@
         <v>30.647058823529399</v>
       </c>
       <c r="J44" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I44,$H$5,$H$6)/1000</f>
-        <v>11.196358121555587</v>
-      </c>
-      <c r="P44" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I44,$H$5,$H$6)</f>
-        <v>11196.358121555588</v>
-      </c>
-      <c r="Q44" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I44,$C$20,$H$5,$H$6)</f>
-        <v>4765.7642024177303</v>
-      </c>
-      <c r="R44" s="1">
-        <f>IF(I44&gt;$C$40,Q44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="1">
-        <f>IF(I44&gt;$C$39,Q44,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I44,$H$5,$H$6)/1000</f>
+        <v>15.369238494024755</v>
+      </c>
+      <c r="K44" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I44,$H$5,$H$6)</f>
+        <v>15369.238494024754</v>
+      </c>
+      <c r="L44" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I44,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <f>IF(I44&gt;$C$40,L44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <f>IF(I44&gt;$C$39,L44,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I45" s="1">
         <f t="shared" si="0"/>
         <v>32.058823529411754</v>
       </c>
       <c r="J45" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I45,$H$5,$H$6)/1000</f>
-        <v>11.196355979405579</v>
-      </c>
-      <c r="P45" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I45,$H$5,$H$6)</f>
-        <v>11196.35597940558</v>
-      </c>
-      <c r="Q45" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I45,$C$20,$H$5,$H$6)</f>
-        <v>4985.3154335247009</v>
-      </c>
-      <c r="R45" s="1">
-        <f>IF(I45&gt;$C$40,Q45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="1">
-        <f>IF(I45&gt;$C$39,Q45,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I45,$H$5,$H$6)/1000</f>
+        <v>15.369233171546187</v>
+      </c>
+      <c r="K45" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I45,$H$5,$H$6)</f>
+        <v>15369.233171546186</v>
+      </c>
+      <c r="L45" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I45,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <f>IF(I45&gt;$C$40,L45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <f>IF(I45&gt;$C$39,L45,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I46" s="1">
         <f t="shared" si="0"/>
         <v>33.470588235294109</v>
       </c>
       <c r="J46" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I46,$H$5,$H$6)/1000</f>
-        <v>11.196367232829681</v>
-      </c>
-      <c r="P46" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I46,$H$5,$H$6)</f>
-        <v>11196.367232829682</v>
-      </c>
-      <c r="Q46" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I46,$C$20,$H$5,$H$6)</f>
-        <v>5204.8389023801219</v>
-      </c>
-      <c r="R46" s="1">
-        <f>IF(I46&gt;$C$40,Q46,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="1">
-        <f>IF(I46&gt;$C$39,Q46,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I46,$H$5,$H$6)/1000</f>
+        <v>15.369236984969902</v>
+      </c>
+      <c r="K46" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I46,$H$5,$H$6)</f>
+        <v>15369.236984969903</v>
+      </c>
+      <c r="L46" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I46,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <f>IF(I46&gt;$C$40,L46,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f>IF(I46&gt;$C$39,L46,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I47" s="1">
         <f t="shared" si="0"/>
         <v>34.882352941176464</v>
       </c>
       <c r="J47" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I47,$H$5,$H$6)/1000</f>
-        <v>11.196363319838335</v>
-      </c>
-      <c r="P47" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I47,$H$5,$H$6)</f>
-        <v>11196.363319838336</v>
-      </c>
-      <c r="Q47" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I47,$C$20,$H$5,$H$6)</f>
-        <v>5424.383964099542</v>
-      </c>
-      <c r="R47" s="1">
-        <f>IF(I47&gt;$C$40,Q47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <f>IF(I47&gt;$C$39,Q47,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I47,$H$5,$H$6)/1000</f>
+        <v>15.369234721387047</v>
+      </c>
+      <c r="K47" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I47,$H$5,$H$6)</f>
+        <v>15369.234721387047</v>
+      </c>
+      <c r="L47" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I47,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <f>IF(I47&gt;$C$40,L47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f>IF(I47&gt;$C$39,L47,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I48" s="1">
         <f t="shared" si="0"/>
         <v>36.294117647058819</v>
       </c>
       <c r="J48" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I48,$H$5,$H$6)/1000</f>
-        <v>11.196373716395744</v>
-      </c>
-      <c r="P48" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I48,$H$5,$H$6)</f>
-        <v>11196.373716395745</v>
-      </c>
-      <c r="Q48" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I48,$C$20,$H$5,$H$6)</f>
-        <v>5643.9154874340575</v>
-      </c>
-      <c r="R48" s="1">
-        <f>IF(I48&gt;$C$40,Q48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="1">
-        <f>IF(I48&gt;$C$39,Q48,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I48,$H$5,$H$6)/1000</f>
+        <v>15.369243898072092</v>
+      </c>
+      <c r="K48" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I48,$H$5,$H$6)</f>
+        <v>15369.243898072093</v>
+      </c>
+      <c r="L48" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I48,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <f>IF(I48&gt;$C$40,L48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f>IF(I48&gt;$C$39,L48,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I49" s="1">
         <f t="shared" si="0"/>
         <v>37.705882352941174</v>
       </c>
       <c r="J49" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I49,$H$5,$H$6)/1000</f>
-        <v>11.19636449087937</v>
-      </c>
-      <c r="P49" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I49,$H$5,$H$6)</f>
-        <v>11196.36449087937</v>
-      </c>
-      <c r="Q49" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I49,$C$20,$H$5,$H$6)</f>
-        <v>5863.4560077946626</v>
-      </c>
-      <c r="R49" s="1">
-        <f>IF(I49&gt;$C$40,Q49,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S49" s="1">
-        <f>IF(I49&gt;$C$39,Q49,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I49,$H$5,$H$6)/1000</f>
+        <v>15.369236801435884</v>
+      </c>
+      <c r="K49" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I49,$H$5,$H$6)</f>
+        <v>15369.236801435884</v>
+      </c>
+      <c r="L49" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I49,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <f>IF(I49&gt;$C$40,L49,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <f>IF(I49&gt;$C$39,L49,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I50" s="1">
         <f t="shared" si="0"/>
         <v>39.117647058823529</v>
       </c>
       <c r="J50" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I50,$H$5,$H$6)/1000</f>
-        <v>11.195845906996999</v>
-      </c>
-      <c r="P50" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I50,$H$5,$H$6)</f>
-        <v>11195.845906996999</v>
-      </c>
-      <c r="Q50" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I50,$C$20,$H$5,$H$6)</f>
-        <v>6082.9880452441803</v>
-      </c>
-      <c r="R50" s="1">
-        <f>IF(I50&gt;$C$40,Q50,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="1">
-        <f>IF(I50&gt;$C$39,Q50,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I50,$H$5,$H$6)/1000</f>
+        <v>15.366306483576418</v>
+      </c>
+      <c r="K50" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I50,$H$5,$H$6)</f>
+        <v>15366.306483576418</v>
+      </c>
+      <c r="L50" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I50,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <f>IF(I50&gt;$C$40,L50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <f>IF(I50&gt;$C$39,L50,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I51" s="1">
         <f t="shared" si="0"/>
         <v>40.529411764705884</v>
       </c>
       <c r="J51" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I51,$H$5,$H$6)/1000</f>
-        <v>11.181488542041881</v>
-      </c>
-      <c r="P51" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I51,$H$5,$H$6)</f>
-        <v>11181.488542041881</v>
-      </c>
-      <c r="Q51" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I51,$C$20,$H$5,$H$6)</f>
-        <v>6302.5294224645768</v>
-      </c>
-      <c r="R51" s="1">
-        <f>IF(I51&gt;$C$40,Q51,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S51" s="1">
-        <f>IF(I51&gt;$C$39,Q51,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I51,$H$5,$H$6)/1000</f>
+        <v>15.340244610308511</v>
+      </c>
+      <c r="K51" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I51,$H$5,$H$6)</f>
+        <v>15340.244610308511</v>
+      </c>
+      <c r="L51" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I51,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <f>IF(I51&gt;$C$40,L51,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <f>IF(I51&gt;$C$39,L51,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I52" s="1">
         <f t="shared" si="0"/>
         <v>41.941176470588239</v>
       </c>
       <c r="J52" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I52,$H$5,$H$6)/1000</f>
-        <v>11.14730651446046</v>
-      </c>
-      <c r="P52" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I52,$H$5,$H$6)</f>
-        <v>11147.306514460461</v>
-      </c>
-      <c r="Q52" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I52,$C$20,$H$5,$H$6)</f>
-        <v>6522.065829898861</v>
-      </c>
-      <c r="R52" s="1">
-        <f>IF(I52&gt;$C$40,Q52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S52" s="1">
-        <f>IF(I52&gt;$C$39,Q52,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I52,$H$5,$H$6)/1000</f>
+        <v>15.286952211335668</v>
+      </c>
+      <c r="K52" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I52,$H$5,$H$6)</f>
+        <v>15286.952211335669</v>
+      </c>
+      <c r="L52" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I52,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <f>IF(I52&gt;$C$40,L52,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <f>IF(I52&gt;$C$39,L52,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I53" s="1">
         <f t="shared" si="0"/>
         <v>43.352941176470594</v>
       </c>
       <c r="J53" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I53,$H$5,$H$6)/1000</f>
-        <v>11.092966525985956</v>
-      </c>
-      <c r="P53" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I53,$H$5,$H$6)</f>
-        <v>11092.966525985956</v>
-      </c>
-      <c r="Q53" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I53,$C$20,$H$5,$H$6)</f>
-        <v>6741.6003522420633</v>
-      </c>
-      <c r="R53" s="1">
-        <f>IF(I53&gt;$C$40,Q53,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="1">
-        <f>IF(I53&gt;$C$39,Q53,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I53,$H$5,$H$6)/1000</f>
+        <v>15.206067107656791</v>
+      </c>
+      <c r="K53" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I53,$H$5,$H$6)</f>
+        <v>15206.067107656791</v>
+      </c>
+      <c r="L53" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I53,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <f>IF(I53&gt;$C$40,L53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <f>IF(I53&gt;$C$39,L53,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I54" s="1">
         <f t="shared" si="0"/>
         <v>44.764705882352949</v>
       </c>
       <c r="J54" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I54,$H$5,$H$6)/1000</f>
-        <v>11.018047339003395</v>
-      </c>
-      <c r="P54" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I54,$H$5,$H$6)</f>
-        <v>11018.047339003395</v>
-      </c>
-      <c r="Q54" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I54,$C$20,$H$5,$H$6)</f>
-        <v>6961.1437002358489</v>
-      </c>
-      <c r="R54" s="1">
-        <f>IF(I54&gt;$C$40,Q54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <f>IF(I54&gt;$C$39,Q54,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I54,$H$5,$H$6)/1000</f>
+        <v>15.097059240257147</v>
+      </c>
+      <c r="K54" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I54,$H$5,$H$6)</f>
+        <v>15097.059240257147</v>
+      </c>
+      <c r="L54" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I54,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <f>IF(I54&gt;$C$40,L54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <f>IF(I54&gt;$C$39,L54,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I55" s="1">
         <f t="shared" si="0"/>
         <v>46.176470588235304</v>
       </c>
       <c r="J55" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I55,$H$5,$H$6)/1000</f>
-        <v>10.922039013985176</v>
-      </c>
-      <c r="P55" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I55,$H$5,$H$6)</f>
-        <v>10922.039013985175</v>
-      </c>
-      <c r="Q55" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I55,$C$20,$H$5,$H$6)</f>
-        <v>7180.6786510101856</v>
-      </c>
-      <c r="R55" s="1">
-        <f>IF(I55&gt;$C$40,Q55,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S55" s="1">
-        <f>IF(I55&gt;$C$39,Q55,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I55,$H$5,$H$6)/1000</f>
+        <v>14.959230418353929</v>
+      </c>
+      <c r="K55" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I55,$H$5,$H$6)</f>
+        <v>14959.230418353929</v>
+      </c>
+      <c r="L55" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I55,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <f>IF(I55&gt;$C$40,L55,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <f>IF(I55&gt;$C$39,L55,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I56" s="1">
         <f t="shared" si="0"/>
         <v>47.588235294117659</v>
       </c>
       <c r="J56" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I56,$H$5,$H$6)/1000</f>
-        <v>10.804298269102548</v>
-      </c>
-      <c r="P56" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I56,$H$5,$H$6)</f>
-        <v>10804.298269102548</v>
-      </c>
-      <c r="Q56" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I56,$C$20,$H$5,$H$6)</f>
-        <v>7400.2034051524824</v>
-      </c>
-      <c r="R56" s="1">
-        <f>IF(I56&gt;$C$40,Q56,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="1">
-        <f>IF(I56&gt;$C$39,Q56,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I56,$H$5,$H$6)/1000</f>
+        <v>14.791741304531415</v>
+      </c>
+      <c r="K56" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I56,$H$5,$H$6)</f>
+        <v>14791.741304531415</v>
+      </c>
+      <c r="L56" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I56,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <f>IF(I56&gt;$C$40,L56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <f>IF(I56&gt;$C$39,L56,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I57" s="1">
         <f t="shared" si="0"/>
         <v>49.000000000000014</v>
       </c>
       <c r="J57" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I57,$H$5,$H$6)/1000</f>
-        <v>10.664029496431194</v>
-      </c>
-      <c r="P57" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I57,$H$5,$H$6)</f>
-        <v>10664.029496431194</v>
-      </c>
-      <c r="Q57" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I57,$C$20,$H$5,$H$6)</f>
-        <v>7619.7452964911508</v>
-      </c>
-      <c r="R57" s="1">
-        <f>IF(I57&gt;$C$40,Q57,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="1">
-        <f>IF(I57&gt;$C$39,Q57,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I57,$H$5,$H$6)/1000</f>
+        <v>14.593560964685153</v>
+      </c>
+      <c r="K57" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I57,$H$5,$H$6)</f>
+        <v>14593.560964685154</v>
+      </c>
+      <c r="L57" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I57,$C$20,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <f>IF(I57&gt;$C$40,L57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <f>IF(I57&gt;$C$39,L57,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I58" s="1">
         <f t="shared" si="0"/>
         <v>50.411764705882369</v>
       </c>
       <c r="J58" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I58,$H$5,$H$6)/1000</f>
-        <v>10.500225762101461</v>
-      </c>
-      <c r="P58" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I58,$H$5,$H$6)</f>
-        <v>10500.225762101461</v>
-      </c>
-      <c r="Q58" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I58,$C$20,$H$5,$H$6)</f>
-        <v>7839.2763913927693</v>
-      </c>
-      <c r="R58" s="1">
-        <f>IF(I58&gt;$C$40,Q58,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="1">
-        <f>IF(I58&gt;$C$39,Q58,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I58,$H$5,$H$6)/1000</f>
+        <v>14.363364564390526</v>
+      </c>
+      <c r="K58" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I58,$H$5,$H$6)</f>
+        <v>14363.364564390526</v>
+      </c>
+      <c r="L58" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I58,$C$20,$H$5,$H$6)</f>
+        <v>2004.1656704433296</v>
+      </c>
+      <c r="M58" s="1">
+        <f>IF(I58&gt;$C$40,L58,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <f>IF(I58&gt;$C$39,L58,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I59" s="1">
         <f t="shared" si="0"/>
         <v>51.823529411764724</v>
       </c>
       <c r="J59" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I59,$H$5,$H$6)/1000</f>
-        <v>10.311738983747032</v>
-      </c>
-      <c r="P59" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I59,$H$5,$H$6)</f>
-        <v>10311.738983747033</v>
-      </c>
-      <c r="Q59" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I59,$C$20,$H$5,$H$6)</f>
-        <v>8058.8115992221256</v>
-      </c>
-      <c r="R59" s="1">
-        <f>IF(I59&gt;$C$40,Q59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S59" s="1">
-        <f>IF(I59&gt;$C$39,Q59,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I59,$H$5,$H$6)/1000</f>
+        <v>14.09960659705547</v>
+      </c>
+      <c r="K59" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I59,$H$5,$H$6)</f>
+        <v>14099.60659705547</v>
+      </c>
+      <c r="L59" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I59,$C$20,$H$5,$H$6)</f>
+        <v>4214.1981121124991</v>
+      </c>
+      <c r="M59" s="1">
+        <f>IF(I59&gt;$C$40,L59,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <f>IF(I59&gt;$C$39,L59,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I60" s="1">
         <f t="shared" si="0"/>
         <v>53.235294117647079</v>
       </c>
       <c r="J60" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I60,$H$5,$H$6)/1000</f>
-        <v>10.097096625577997</v>
-      </c>
-      <c r="P60" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I60,$H$5,$H$6)</f>
-        <v>10097.096625577997</v>
-      </c>
-      <c r="Q60" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I60,$C$20,$H$5,$H$6)</f>
-        <v>8278.3594028929892</v>
-      </c>
-      <c r="R60" s="1">
-        <f>IF(I60&gt;$C$40,Q60,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S60" s="1">
-        <f>IF(I60&gt;$C$39,Q60,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I60,$H$5,$H$6)/1000</f>
+        <v>13.800342137236981</v>
+      </c>
+      <c r="K60" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I60,$H$5,$H$6)</f>
+        <v>13800.342137236981</v>
+      </c>
+      <c r="L60" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I60,$C$20,$H$5,$H$6)</f>
+        <v>5608.5577060035421</v>
+      </c>
+      <c r="M60" s="1">
+        <f>IF(I60&gt;$C$40,L60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <f>IF(I60&gt;$C$39,L60,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I61" s="1">
         <f t="shared" si="0"/>
         <v>54.647058823529434</v>
       </c>
       <c r="J61" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I61,$H$5,$H$6)/1000</f>
-        <v>9.854571136524914</v>
-      </c>
-      <c r="P61" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I61,$H$5,$H$6)</f>
-        <v>9854.5711365249135</v>
-      </c>
-      <c r="Q61" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I61,$C$20,$H$5,$H$6)</f>
-        <v>8497.9036077428736</v>
-      </c>
-      <c r="R61" s="1">
-        <f>IF(I61&gt;$C$40,Q61,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="1">
-        <f>IF(I61&gt;$C$39,Q61,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I61,$H$5,$H$6)/1000</f>
+        <v>13.463237655355714</v>
+      </c>
+      <c r="K61" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I61,$H$5,$H$6)</f>
+        <v>13463.237655355713</v>
+      </c>
+      <c r="L61" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I61,$C$20,$H$5,$H$6)</f>
+        <v>6715.9147996555976</v>
+      </c>
+      <c r="M61" s="1">
+        <f>IF(I61&gt;$C$40,L61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <f>IF(I61&gt;$C$39,L61,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I62" s="1">
         <f t="shared" si="0"/>
         <v>56.058823529411789</v>
       </c>
       <c r="J62" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I62,$H$5,$H$6)/1000</f>
-        <v>9.5819785374867763</v>
-      </c>
-      <c r="P62" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I62,$H$5,$H$6)</f>
-        <v>9581.978537486777</v>
-      </c>
-      <c r="Q62" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I62,$C$20,$H$5,$H$6)</f>
-        <v>8717.4257056280585</v>
-      </c>
-      <c r="R62" s="1">
-        <f>IF(I62&gt;$C$40,Q62,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S62" s="1">
-        <f>IF(I62&gt;$C$39,Q62,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I62,$H$5,$H$6)/1000</f>
+        <v>13.085378501091046</v>
+      </c>
+      <c r="K62" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I62,$H$5,$H$6)</f>
+        <v>13085.378501091047</v>
+      </c>
+      <c r="L62" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I62,$C$20,$H$5,$H$6)</f>
+        <v>7661.606612665375</v>
+      </c>
+      <c r="M62" s="1">
+        <f>IF(I62&gt;$C$40,L62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <f>IF(I62&gt;$C$39,L62,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I63" s="1">
         <f t="shared" si="0"/>
         <v>57.470588235294144</v>
       </c>
       <c r="J63" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I63,$H$5,$H$6)/1000</f>
-        <v>9.2766478074847178</v>
-      </c>
-      <c r="P63" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I63,$H$5,$H$6)</f>
-        <v>9276.6478074847182</v>
-      </c>
-      <c r="Q63" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I63,$C$20,$H$5,$H$6)</f>
-        <v>8936.9659260882127</v>
-      </c>
-      <c r="R63" s="1">
-        <f>IF(I63&gt;$C$40,Q63,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S63" s="1">
-        <f>IF(I63&gt;$C$39,Q63,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I63,$H$5,$H$6)/1000</f>
+        <v>12.663174616510338</v>
+      </c>
+      <c r="K63" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I63,$H$5,$H$6)</f>
+        <v>12663.174616510338</v>
+      </c>
+      <c r="L63" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I63,$C$20,$H$5,$H$6)</f>
+        <v>8499.6890665989195</v>
+      </c>
+      <c r="M63" s="1">
+        <f>IF(I63&gt;$C$40,L63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <f>IF(I63&gt;$C$39,L63,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I64" s="1">
         <f t="shared" si="0"/>
         <v>58.882352941176499</v>
       </c>
       <c r="J64" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I64,$H$5,$H$6)/1000</f>
-        <v>8.9352027938050682</v>
-      </c>
-      <c r="P64" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I64,$H$5,$H$6)</f>
-        <v>8935.2027938050687</v>
-      </c>
-      <c r="Q64" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I64,$C$20,$H$5,$H$6)</f>
-        <v>9156.5046898861729</v>
-      </c>
-      <c r="R64" s="1">
-        <f>IF(I64&gt;$C$40,Q64,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S64" s="1">
-        <f>IF(I64&gt;$C$39,Q64,0)</f>
-        <v>9156.5046898861729</v>
-      </c>
-    </row>
-    <row r="65" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I64,$H$5,$H$6)/1000</f>
+        <v>12.192030170715228</v>
+      </c>
+      <c r="K64" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I64,$H$5,$H$6)</f>
+        <v>12192.030170715228</v>
+      </c>
+      <c r="L64" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I64,$C$20,$H$5,$H$6)</f>
+        <v>9259.3077741268607</v>
+      </c>
+      <c r="M64" s="1">
+        <f>IF(I64&gt;$C$40,L64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <f>IF(I64&gt;$C$39,L64,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I65" s="1">
         <f t="shared" si="0"/>
         <v>60.294117647058854</v>
       </c>
       <c r="J65" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I65,$H$5,$H$6)/1000</f>
-        <v>8.5532691265259313</v>
-      </c>
-      <c r="P65" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I65,$H$5,$H$6)</f>
-        <v>8553.2691265259309</v>
-      </c>
-      <c r="Q65" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I65,$C$20,$H$5,$H$6)</f>
-        <v>9376.0412258492488</v>
-      </c>
-      <c r="R65" s="1">
-        <f>IF(I65&gt;$C$40,Q65,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S65" s="1">
-        <f>IF(I65&gt;$C$39,Q65,0)</f>
-        <v>9376.0412258492488</v>
-      </c>
-    </row>
-    <row r="66" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I65,$H$5,$H$6)/1000</f>
+        <v>11.666089153390445</v>
+      </c>
+      <c r="K65" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I65,$H$5,$H$6)</f>
+        <v>11666.089153390445</v>
+      </c>
+      <c r="L65" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I65,$C$20,$H$5,$H$6)</f>
+        <v>9958.412599242447</v>
+      </c>
+      <c r="M65" s="1">
+        <f>IF(I65&gt;$C$40,L65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <f>IF(I65&gt;$C$39,L65,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I66" s="1">
         <f t="shared" si="0"/>
         <v>61.705882352941209</v>
       </c>
       <c r="J66" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I66,$H$5,$H$6)/1000</f>
-        <v>8.1251441803971218</v>
-      </c>
-      <c r="P66" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I66,$H$5,$H$6)</f>
-        <v>8125.144180397122</v>
-      </c>
-      <c r="Q66" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I66,$C$20,$H$5,$H$6)</f>
-        <v>9595.5861590305249</v>
-      </c>
-      <c r="R66" s="1">
-        <f>IF(I66&gt;$C$40,Q66,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S66" s="1">
-        <f>IF(I66&gt;$C$39,Q66,0)</f>
-        <v>9595.5861590305249</v>
-      </c>
-    </row>
-    <row r="67" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I66,$H$5,$H$6)/1000</f>
+        <v>11.077602775478274</v>
+      </c>
+      <c r="K66" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I66,$H$5,$H$6)</f>
+        <v>11077.602775478274</v>
+      </c>
+      <c r="L66" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I66,$C$20,$H$5,$H$6)</f>
+        <v>10608.885186670319</v>
+      </c>
+      <c r="M66" s="1">
+        <f>IF(I66&gt;$C$40,L66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <f>IF(I66&gt;$C$39,L66,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I67" s="1">
         <f t="shared" si="0"/>
         <v>63.117647058823565</v>
       </c>
       <c r="J67" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I67,$H$5,$H$6)/1000</f>
-        <v>7.6430429902572721</v>
-      </c>
-      <c r="P67" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I67,$H$5,$H$6)</f>
-        <v>7643.0429902572723</v>
-      </c>
-      <c r="Q67" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I67,$C$20,$H$5,$H$6)</f>
-        <v>9815.1133552300471</v>
-      </c>
-      <c r="R67" s="1">
-        <f>IF(I67&gt;$C$40,Q67,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S67" s="1">
-        <f>IF(I67&gt;$C$39,Q67,0)</f>
-        <v>9815.1133552300471</v>
-      </c>
-    </row>
-    <row r="68" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I67,$H$5,$H$6)/1000</f>
+        <v>10.41607905624576</v>
+      </c>
+      <c r="K67" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I67,$H$5,$H$6)</f>
+        <v>10416.079056245761</v>
+      </c>
+      <c r="L67" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I67,$C$20,$H$5,$H$6)</f>
+        <v>11219.178433048708</v>
+      </c>
+      <c r="M67" s="1">
+        <f>IF(I67&gt;$C$40,L67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <f>IF(I67&gt;$C$39,L67,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I68" s="1">
         <f t="shared" si="0"/>
         <v>64.529411764705912</v>
       </c>
       <c r="J68" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I68,$H$5,$H$6)/1000</f>
-        <v>7.0959426916811941</v>
-      </c>
-      <c r="P68" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I68,$H$5,$H$6)</f>
-        <v>7095.9426916811944</v>
-      </c>
-      <c r="Q68" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I68,$C$20,$H$5,$H$6)</f>
-        <v>10034.649162862534</v>
-      </c>
-      <c r="R68" s="1">
-        <f>IF(I68&gt;$C$40,Q68,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S68" s="1">
-        <f>IF(I68&gt;$C$39,Q68,0)</f>
-        <v>10034.649162862534</v>
-      </c>
-    </row>
-    <row r="69" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I68,$H$5,$H$6)/1000</f>
+        <v>9.6665821940260077</v>
+      </c>
+      <c r="K68" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I68,$H$5,$H$6)</f>
+        <v>9666.5821940260084</v>
+      </c>
+      <c r="L68" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I68,$C$20,$H$5,$H$6)</f>
+        <v>11795.481143699089</v>
+      </c>
+      <c r="M68" s="1">
+        <f>IF(I68&gt;$C$40,L68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <f>IF(I68&gt;$C$39,L68,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I69" s="1">
         <f t="shared" si="0"/>
         <v>65.94117647058826</v>
       </c>
       <c r="J69" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I69,$H$5,$H$6)/1000</f>
-        <v>6.4673984341697555</v>
-      </c>
-      <c r="P69" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I69,$H$5,$H$6)</f>
-        <v>6467.3984341697551</v>
-      </c>
-      <c r="Q69" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I69,$C$20,$H$5,$H$6)</f>
-        <v>10254.185913040383</v>
-      </c>
-      <c r="R69" s="1">
-        <f>IF(I69&gt;$C$40,Q69,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S69" s="1">
-        <f>IF(I69&gt;$C$39,Q69,0)</f>
-        <v>10254.185913040383</v>
-      </c>
-    </row>
-    <row r="70" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I69,$H$5,$H$6)/1000</f>
+        <v>8.8067890794981416</v>
+      </c>
+      <c r="K69" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I69,$H$5,$H$6)</f>
+        <v>8806.7890794981413</v>
+      </c>
+      <c r="L69" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I69,$C$20,$H$5,$H$6)</f>
+        <v>12342.53557287289</v>
+      </c>
+      <c r="M69" s="1">
+        <f>IF(I69&gt;$C$40,L69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <f>IF(I69&gt;$C$39,L69,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I70" s="1">
         <f t="shared" si="0"/>
         <v>67.352941176470608</v>
       </c>
       <c r="J70" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I70,$H$5,$H$6)/1000</f>
-        <v>5.7306618573157007</v>
-      </c>
-      <c r="P70" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I70,$H$5,$H$6)</f>
-        <v>5730.6618573157002</v>
-      </c>
-      <c r="Q70" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I70,$C$20,$H$5,$H$6)</f>
-        <v>10473.720264011836</v>
-      </c>
-      <c r="R70" s="1">
-        <f>IF(I70&gt;$C$40,Q70,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S70" s="1">
-        <f>IF(I70&gt;$C$39,Q70,0)</f>
-        <v>10473.720264011836</v>
-      </c>
-    </row>
-    <row r="71" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I70,$H$5,$H$6)/1000</f>
+        <v>7.8004492196521245</v>
+      </c>
+      <c r="K70" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I70,$H$5,$H$6)</f>
+        <v>7800.4492196521242</v>
+      </c>
+      <c r="L70" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I70,$C$20,$H$5,$H$6)</f>
+        <v>12864.07026756119</v>
+      </c>
+      <c r="M70" s="1">
+        <f>IF(I70&gt;$C$40,L70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <f>IF(I70&gt;$C$39,L70,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I71" s="1">
         <f t="shared" si="0"/>
         <v>68.764705882352956</v>
       </c>
       <c r="J71" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I71,$H$5,$H$6)/1000</f>
-        <v>4.8365429229385315</v>
-      </c>
-      <c r="P71" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I71,$H$5,$H$6)</f>
-        <v>4836.5429229385318</v>
-      </c>
-      <c r="Q71" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I71,$C$20,$H$5,$H$6)</f>
-        <v>10693.254914883239</v>
-      </c>
-      <c r="R71" s="1">
-        <f>IF(I71&gt;$C$40,Q71,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S71" s="1">
-        <f>IF(I71&gt;$C$39,Q71,0)</f>
-        <v>10693.254914883239</v>
-      </c>
-    </row>
-    <row r="72" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I71,$H$5,$H$6)/1000</f>
+        <v>6.5808057467814134</v>
+      </c>
+      <c r="K71" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I71,$H$5,$H$6)</f>
+        <v>6580.8057467814133</v>
+      </c>
+      <c r="L71" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I71,$C$20,$H$5,$H$6)</f>
+        <v>13363.047202241381</v>
+      </c>
+      <c r="M71" s="1">
+        <f>IF(I71&gt;$C$40,L71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <f>IF(I71&gt;$C$39,L71,0)</f>
+        <v>13363.047202241381</v>
+      </c>
+    </row>
+    <row r="72" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I72" s="1">
         <f t="shared" si="0"/>
         <v>70.176470588235304</v>
       </c>
       <c r="J72" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I72,$H$5,$H$6)/1000</f>
-        <v>3.6718505131263481</v>
-      </c>
-      <c r="P72" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I72,$H$5,$H$6)</f>
-        <v>3671.8505131263482</v>
-      </c>
-      <c r="Q72" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I72,$C$20,$H$5,$H$6)</f>
-        <v>10912.800319342179</v>
-      </c>
-      <c r="R72" s="1">
-        <f>IF(I72&gt;$C$40,Q72,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S72" s="1">
-        <f>IF(I72&gt;$C$39,Q72,0)</f>
-        <v>10912.800319342179</v>
-      </c>
-    </row>
-    <row r="73" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I72,$H$5,$H$6)/1000</f>
+        <v>4.9941052060376272</v>
+      </c>
+      <c r="K72" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I72,$H$5,$H$6)</f>
+        <v>4994.1052060376269</v>
+      </c>
+      <c r="L72" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I72,$C$20,$H$5,$H$6)</f>
+        <v>13841.905244732139</v>
+      </c>
+      <c r="M72" s="1">
+        <f>IF(I72&gt;$C$40,L72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <f>IF(I72&gt;$C$39,L72,0)</f>
+        <v>13841.905244732139</v>
+      </c>
+    </row>
+    <row r="73" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I73" s="1">
         <f t="shared" si="0"/>
         <v>71.588235294117652</v>
       </c>
       <c r="J73" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I73,$H$5,$H$6)/1000</f>
-        <v>1.7639985232316968</v>
-      </c>
-      <c r="P73" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I73,$H$5,$H$6)</f>
-        <v>1763.9985232316967</v>
-      </c>
-      <c r="Q73" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I73,$C$20,$H$5,$H$6)</f>
-        <v>11132.331542777469</v>
-      </c>
-      <c r="R73" s="1">
-        <f>IF(I73&gt;$C$40,Q73,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S73" s="1">
-        <f>IF(I73&gt;$C$39,Q73,0)</f>
-        <v>11132.331542777469</v>
-      </c>
-    </row>
-    <row r="74" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I73,$H$5,$H$6)/1000</f>
+        <v>2.3982764496805378</v>
+      </c>
+      <c r="K73" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I73,$H$5,$H$6)</f>
+        <v>2398.2764496805376</v>
+      </c>
+      <c r="L73" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I73,$C$20,$H$5,$H$6)</f>
+        <v>14302.66827424821</v>
+      </c>
+      <c r="M73" s="1">
+        <f>IF(I73&gt;$C$40,L73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <f>IF(I73&gt;$C$39,L73,0)</f>
+        <v>14302.66827424821</v>
+      </c>
+    </row>
+    <row r="74" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I74" s="1">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="J74" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I74,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P74" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I74,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I74,$C$20,$H$5,$H$6)</f>
-        <v>11351.861309548009</v>
-      </c>
-      <c r="R74" s="1">
-        <f>IF(I74&gt;$C$40,Q74,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S74" s="1">
-        <f>IF(I74&gt;$C$39,Q74,0)</f>
-        <v>11351.861309548009</v>
-      </c>
-    </row>
-    <row r="75" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I74,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I74,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I74,$C$20,$H$5,$H$6)</f>
+        <v>14747.022261677206</v>
+      </c>
+      <c r="M74" s="1">
+        <f>IF(I74&gt;$C$40,L74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <f>IF(I74&gt;$C$39,L74,0)</f>
+        <v>14747.022261677206</v>
+      </c>
+    </row>
+    <row r="75" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I75" s="1">
         <f t="shared" si="0"/>
         <v>74.411764705882348</v>
       </c>
       <c r="J75" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I75,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I75,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I75,$C$20,$H$5,$H$6)</f>
-        <v>11571.398231098181</v>
-      </c>
-      <c r="R75" s="1">
-        <f>IF(I75&gt;$C$40,Q75,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S75" s="1">
-        <f>IF(I75&gt;$C$39,Q75,0)</f>
-        <v>11571.398231098181</v>
-      </c>
-    </row>
-    <row r="76" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I75,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I75,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I75,$C$20,$H$5,$H$6)</f>
+        <v>15176.415386770477</v>
+      </c>
+      <c r="M75" s="1">
+        <f>IF(I75&gt;$C$40,L75,0)</f>
+        <v>15176.415386770477</v>
+      </c>
+      <c r="N75" s="1">
+        <f>IF(I75&gt;$C$39,L75,0)</f>
+        <v>15176.415386770477</v>
+      </c>
+    </row>
+    <row r="76" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I76" s="1">
         <f t="shared" si="0"/>
         <v>75.823529411764696</v>
       </c>
       <c r="J76" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I76,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P76" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I76,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q76" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I76,$C$20,$H$5,$H$6)</f>
-        <v>11790.946805938444</v>
-      </c>
-      <c r="R76" s="1">
-        <f>IF(I76&gt;$C$40,Q76,0)</f>
-        <v>11790.946805938444</v>
-      </c>
-      <c r="S76" s="1">
-        <f>IF(I76&gt;$C$39,Q76,0)</f>
-        <v>11790.946805938444</v>
-      </c>
-    </row>
-    <row r="77" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I76,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I76,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I76,$C$20,$H$5,$H$6)</f>
+        <v>15592.095273622874</v>
+      </c>
+      <c r="M76" s="1">
+        <f>IF(I76&gt;$C$40,L76,0)</f>
+        <v>15592.095273622874</v>
+      </c>
+      <c r="N76" s="1">
+        <f>IF(I76&gt;$C$39,L76,0)</f>
+        <v>15592.095273622874</v>
+      </c>
+    </row>
+    <row r="77" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I77" s="1">
         <f t="shared" si="0"/>
         <v>77.235294117647044</v>
       </c>
       <c r="J77" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I77,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P77" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I77,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I77,$C$20,$H$5,$H$6)</f>
-        <v>12010.474773306974</v>
-      </c>
-      <c r="R77" s="1">
-        <f>IF(I77&gt;$C$40,Q77,0)</f>
-        <v>12010.474773306974</v>
-      </c>
-      <c r="S77" s="1">
-        <f>IF(I77&gt;$C$39,Q77,0)</f>
-        <v>12010.474773306974</v>
-      </c>
-    </row>
-    <row r="78" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I77,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I77,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I77,$C$20,$H$5,$H$6)</f>
+        <v>15995.109590400814</v>
+      </c>
+      <c r="M77" s="1">
+        <f>IF(I77&gt;$C$40,L77,0)</f>
+        <v>15995.109590400814</v>
+      </c>
+      <c r="N77" s="1">
+        <f>IF(I77&gt;$C$39,L77,0)</f>
+        <v>15995.109590400814</v>
+      </c>
+    </row>
+    <row r="78" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I78" s="1">
         <f t="shared" si="0"/>
         <v>78.647058823529392</v>
       </c>
       <c r="J78" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I78,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P78" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I78,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q78" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I78,$C$20,$H$5,$H$6)</f>
-        <v>12230.009681236659</v>
-      </c>
-      <c r="R78" s="1">
-        <f>IF(I78&gt;$C$40,Q78,0)</f>
-        <v>12230.009681236659</v>
-      </c>
-      <c r="S78" s="1">
-        <f>IF(I78&gt;$C$39,Q78,0)</f>
-        <v>12230.009681236659</v>
-      </c>
-    </row>
-    <row r="79" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I78,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I78,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I78,$C$20,$H$5,$H$6)</f>
+        <v>16386.430303521098</v>
+      </c>
+      <c r="M78" s="1">
+        <f>IF(I78&gt;$C$40,L78,0)</f>
+        <v>16386.430303521098</v>
+      </c>
+      <c r="N78" s="1">
+        <f>IF(I78&gt;$C$39,L78,0)</f>
+        <v>16386.430303521098</v>
+      </c>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I79" s="1">
         <f t="shared" si="0"/>
         <v>80.05882352941174</v>
       </c>
       <c r="J79" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I79,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P79" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I79,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I79,$C$20,$H$5,$H$6)</f>
-        <v>12449.543689462704</v>
-      </c>
-      <c r="R79" s="1">
-        <f>IF(I79&gt;$C$40,Q79,0)</f>
-        <v>12449.543689462704</v>
-      </c>
-      <c r="S79" s="1">
-        <f>IF(I79&gt;$C$39,Q79,0)</f>
-        <v>12449.543689462704</v>
-      </c>
-    </row>
-    <row r="80" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I79,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I79,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I79,$C$20,$H$5,$H$6)</f>
+        <v>16766.864003739454</v>
+      </c>
+      <c r="M79" s="1">
+        <f>IF(I79&gt;$C$40,L79,0)</f>
+        <v>16766.864003739454</v>
+      </c>
+      <c r="N79" s="1">
+        <f>IF(I79&gt;$C$39,L79,0)</f>
+        <v>16766.864003739454</v>
+      </c>
+    </row>
+    <row r="80" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I80" s="1">
         <f t="shared" si="0"/>
         <v>81.470588235294088</v>
       </c>
       <c r="J80" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I80,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P80" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I80,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q80" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I80,$C$20,$H$5,$H$6)</f>
-        <v>12669.082196203741</v>
-      </c>
-      <c r="R80" s="1">
-        <f>IF(I80&gt;$C$40,Q80,0)</f>
-        <v>12669.082196203741</v>
-      </c>
-      <c r="S80" s="1">
-        <f>IF(I80&gt;$C$39,Q80,0)</f>
-        <v>12669.082196203741</v>
-      </c>
-    </row>
-    <row r="81" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I80,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I80,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I80,$C$20,$H$5,$H$6)</f>
+        <v>17137.169734747975</v>
+      </c>
+      <c r="M80" s="1">
+        <f>IF(I80&gt;$C$40,L80,0)</f>
+        <v>17137.169734747975</v>
+      </c>
+      <c r="N80" s="1">
+        <f>IF(I80&gt;$C$39,L80,0)</f>
+        <v>17137.169734747975</v>
+      </c>
+    </row>
+    <row r="81" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I81" s="1">
         <f t="shared" si="0"/>
         <v>82.882352941176435</v>
       </c>
       <c r="J81" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I81,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P81" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I81,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q81" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I81,$C$20,$H$5,$H$6)</f>
-        <v>12888.627857722164</v>
-      </c>
-      <c r="R81" s="1">
-        <f>IF(I81&gt;$C$40,Q81,0)</f>
-        <v>12888.627857722164</v>
-      </c>
-      <c r="S81" s="1">
-        <f>IF(I81&gt;$C$39,Q81,0)</f>
-        <v>12888.627857722164</v>
-      </c>
-    </row>
-    <row r="82" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I81,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I81,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I81,$C$20,$H$5,$H$6)</f>
+        <v>17497.96938258185</v>
+      </c>
+      <c r="M81" s="1">
+        <f>IF(I81&gt;$C$40,L81,0)</f>
+        <v>17497.96938258185</v>
+      </c>
+      <c r="N81" s="1">
+        <f>IF(I81&gt;$C$39,L81,0)</f>
+        <v>17497.96938258185</v>
+      </c>
+    </row>
+    <row r="82" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I82" s="1">
         <f t="shared" si="0"/>
         <v>84.294117647058783</v>
       </c>
       <c r="J82" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I82,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P82" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I82,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q82" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I82,$C$20,$H$5,$H$6)</f>
-        <v>13108.162551437139</v>
-      </c>
-      <c r="R82" s="1">
-        <f>IF(I82&gt;$C$40,Q82,0)</f>
-        <v>13108.162551437139</v>
-      </c>
-      <c r="S82" s="1">
-        <f>IF(I82&gt;$C$39,Q82,0)</f>
-        <v>13108.162551437139</v>
-      </c>
-    </row>
-    <row r="83" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I82,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I82,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I82,$C$20,$H$5,$H$6)</f>
+        <v>17849.868273219065</v>
+      </c>
+      <c r="M82" s="1">
+        <f>IF(I82&gt;$C$40,L82,0)</f>
+        <v>17849.868273219065</v>
+      </c>
+      <c r="N82" s="1">
+        <f>IF(I82&gt;$C$39,L82,0)</f>
+        <v>17849.868273219065</v>
+      </c>
+    </row>
+    <row r="83" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I83" s="1">
         <f t="shared" si="0"/>
         <v>85.705882352941131</v>
       </c>
       <c r="J83" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I83,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P83" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I83,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q83" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I83,$C$20,$H$5,$H$6)</f>
-        <v>13327.700801118897</v>
-      </c>
-      <c r="R83" s="1">
-        <f>IF(I83&gt;$C$40,Q83,0)</f>
-        <v>13327.700801118897</v>
-      </c>
-      <c r="S83" s="1">
-        <f>IF(I83&gt;$C$39,Q83,0)</f>
-        <v>13327.700801118897</v>
-      </c>
-    </row>
-    <row r="84" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I83,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I83,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I83,$C$20,$H$5,$H$6)</f>
+        <v>18193.389342660739</v>
+      </c>
+      <c r="M83" s="1">
+        <f>IF(I83&gt;$C$40,L83,0)</f>
+        <v>18193.389342660739</v>
+      </c>
+      <c r="N83" s="1">
+        <f>IF(I83&gt;$C$39,L83,0)</f>
+        <v>18193.389342660739</v>
+      </c>
+    </row>
+    <row r="84" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I84" s="1">
         <f t="shared" si="0"/>
         <v>87.117647058823479</v>
       </c>
       <c r="J84" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I84,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P84" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I84,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q84" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I84,$C$20,$H$5,$H$6)</f>
-        <v>13547.237037181236</v>
-      </c>
-      <c r="R84" s="1">
-        <f>IF(I84&gt;$C$40,Q84,0)</f>
-        <v>13547.237037181236</v>
-      </c>
-      <c r="S84" s="1">
-        <f>IF(I84&gt;$C$39,Q84,0)</f>
-        <v>13547.237037181236</v>
-      </c>
-    </row>
-    <row r="85" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I84,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I84,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I84,$C$20,$H$5,$H$6)</f>
+        <v>18529.015747839112</v>
+      </c>
+      <c r="M84" s="1">
+        <f>IF(I84&gt;$C$40,L84,0)</f>
+        <v>18529.015747839112</v>
+      </c>
+      <c r="N84" s="1">
+        <f>IF(I84&gt;$C$39,L84,0)</f>
+        <v>18529.015747839112</v>
+      </c>
+    </row>
+    <row r="85" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I85" s="1">
         <f t="shared" si="0"/>
         <v>88.529411764705827</v>
       </c>
       <c r="J85" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I85,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P85" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I85,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I85,$C$20,$H$5,$H$6)</f>
-        <v>13766.76294808471</v>
-      </c>
-      <c r="R85" s="1">
-        <f>IF(I85&gt;$C$40,Q85,0)</f>
-        <v>13766.76294808471</v>
-      </c>
-      <c r="S85" s="1">
-        <f>IF(I85&gt;$C$39,Q85,0)</f>
-        <v>13766.76294808471</v>
-      </c>
-    </row>
-    <row r="86" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I85,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I85,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I85,$C$20,$H$5,$H$6)</f>
+        <v>18857.173646035808</v>
+      </c>
+      <c r="M85" s="1">
+        <f>IF(I85&gt;$C$40,L85,0)</f>
+        <v>18857.173646035808</v>
+      </c>
+      <c r="N85" s="1">
+        <f>IF(I85&gt;$C$39,L85,0)</f>
+        <v>18857.173646035808</v>
+      </c>
+    </row>
+    <row r="86" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I86" s="1">
         <f t="shared" si="0"/>
         <v>89.941176470588175</v>
       </c>
       <c r="J86" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I86,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P86" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I86,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q86" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I86,$C$20,$H$5,$H$6)</f>
-        <v>13986.306296083058</v>
-      </c>
-      <c r="R86" s="1">
-        <f>IF(I86&gt;$C$40,Q86,0)</f>
-        <v>13986.306296083058</v>
-      </c>
-      <c r="S86" s="1">
-        <f>IF(I86&gt;$C$39,Q86,0)</f>
-        <v>13986.306296083058</v>
-      </c>
-    </row>
-    <row r="87" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I86,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I86,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I86,$C$20,$H$5,$H$6)</f>
+        <v>19178.263856591111</v>
+      </c>
+      <c r="M86" s="1">
+        <f>IF(I86&gt;$C$40,L86,0)</f>
+        <v>19178.263856591111</v>
+      </c>
+      <c r="N86" s="1">
+        <f>IF(I86&gt;$C$39,L86,0)</f>
+        <v>19178.263856591111</v>
+      </c>
+    </row>
+    <row r="87" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I87" s="1">
         <f t="shared" si="0"/>
         <v>91.352941176470523</v>
       </c>
       <c r="J87" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I87,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P87" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I87,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q87" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I87,$C$20,$H$5,$H$6)</f>
-        <v>14205.835591580784</v>
-      </c>
-      <c r="R87" s="1">
-        <f>IF(I87&gt;$C$40,Q87,0)</f>
-        <v>14205.835591580784</v>
-      </c>
-      <c r="S87" s="1">
-        <f>IF(I87&gt;$C$39,Q87,0)</f>
-        <v>14205.835591580784</v>
-      </c>
-    </row>
-    <row r="88" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I87,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I87,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I87,$C$20,$H$5,$H$6)</f>
+        <v>19492.641091024907</v>
+      </c>
+      <c r="M87" s="1">
+        <f>IF(I87&gt;$C$40,L87,0)</f>
+        <v>19492.641091024907</v>
+      </c>
+      <c r="N87" s="1">
+        <f>IF(I87&gt;$C$39,L87,0)</f>
+        <v>19492.641091024907</v>
+      </c>
+    </row>
+    <row r="88" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I88" s="1">
         <f t="shared" si="0"/>
         <v>92.764705882352871</v>
       </c>
       <c r="J88" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I88,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P88" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I88,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q88" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I88,$C$20,$H$5,$H$6)</f>
-        <v>14425.375512140683</v>
-      </c>
-      <c r="R88" s="1">
-        <f>IF(I88&gt;$C$40,Q88,0)</f>
-        <v>14425.375512140683</v>
-      </c>
-      <c r="S88" s="1">
-        <f>IF(I88&gt;$C$39,Q88,0)</f>
-        <v>14425.375512140683</v>
-      </c>
-    </row>
-    <row r="89" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I88,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I88,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I88,$C$20,$H$5,$H$6)</f>
+        <v>19800.64616432105</v>
+      </c>
+      <c r="M88" s="1">
+        <f>IF(I88&gt;$C$40,L88,0)</f>
+        <v>19800.64616432105</v>
+      </c>
+      <c r="N88" s="1">
+        <f>IF(I88&gt;$C$39,L88,0)</f>
+        <v>19800.64616432105</v>
+      </c>
+    </row>
+    <row r="89" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I89" s="1">
         <f t="shared" ref="I89:I99" si="1">I88+$I$21/51</f>
         <v>94.176470588235219</v>
       </c>
       <c r="J89" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I89,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P89" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I89,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I89,$C$20,$H$5,$H$6)</f>
-        <v>14644.909863111288</v>
-      </c>
-      <c r="R89" s="1">
-        <f>IF(I89&gt;$C$40,Q89,0)</f>
-        <v>14644.909863111288</v>
-      </c>
-      <c r="S89" s="1">
-        <f>IF(I89&gt;$C$39,Q89,0)</f>
-        <v>14644.909863111288</v>
-      </c>
-    </row>
-    <row r="90" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I89,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I89,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I89,$C$20,$H$5,$H$6)</f>
+        <v>20103.05704433006</v>
+      </c>
+      <c r="M89" s="1">
+        <f>IF(I89&gt;$C$40,L89,0)</f>
+        <v>20103.05704433006</v>
+      </c>
+      <c r="N89" s="1">
+        <f>IF(I89&gt;$C$39,L89,0)</f>
+        <v>20103.05704433006</v>
+      </c>
+    </row>
+    <row r="90" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I90" s="1">
         <f t="shared" si="1"/>
         <v>95.588235294117567</v>
       </c>
       <c r="J90" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I90,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P90" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I90,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I90,$C$20,$H$5,$H$6)</f>
-        <v>14864.461265586309</v>
-      </c>
-      <c r="R90" s="1">
-        <f>IF(I90&gt;$C$40,Q90,0)</f>
-        <v>14864.461265586309</v>
-      </c>
-      <c r="S90" s="1">
-        <f>IF(I90&gt;$C$39,Q90,0)</f>
-        <v>14864.461265586309</v>
-      </c>
-    </row>
-    <row r="91" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I90,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I90,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I90,$C$20,$H$5,$H$6)</f>
+        <v>20404.422913680595</v>
+      </c>
+      <c r="M90" s="1">
+        <f>IF(I90&gt;$C$40,L90,0)</f>
+        <v>20404.422913680595</v>
+      </c>
+      <c r="N90" s="1">
+        <f>IF(I90&gt;$C$39,L90,0)</f>
+        <v>20404.422913680595</v>
+      </c>
+    </row>
+    <row r="91" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I91" s="1">
         <f t="shared" si="1"/>
         <v>96.999999999999915</v>
       </c>
       <c r="J91" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I91,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P91" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I91,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q91" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I91,$C$20,$H$5,$H$6)</f>
-        <v>15083.98897589853</v>
-      </c>
-      <c r="R91" s="1">
-        <f>IF(I91&gt;$C$40,Q91,0)</f>
-        <v>15083.98897589853</v>
-      </c>
-      <c r="S91" s="1">
-        <f>IF(I91&gt;$C$39,Q91,0)</f>
-        <v>15083.98897589853</v>
-      </c>
-    </row>
-    <row r="92" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I91,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I91,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I91,$C$20,$H$5,$H$6)</f>
+        <v>20705.778464357245</v>
+      </c>
+      <c r="M91" s="1">
+        <f>IF(I91&gt;$C$40,L91,0)</f>
+        <v>20705.778464357245</v>
+      </c>
+      <c r="N91" s="1">
+        <f>IF(I91&gt;$C$39,L91,0)</f>
+        <v>20705.778464357245</v>
+      </c>
+    </row>
+    <row r="92" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I92" s="1">
         <f t="shared" si="1"/>
         <v>98.411764705882263</v>
       </c>
       <c r="J92" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I92,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P92" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I92,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q92" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I92,$C$20,$H$5,$H$6)</f>
-        <v>15303.533994768944</v>
-      </c>
-      <c r="R92" s="1">
-        <f>IF(I92&gt;$C$40,Q92,0)</f>
-        <v>15303.533994768944</v>
-      </c>
-      <c r="S92" s="1">
-        <f>IF(I92&gt;$C$39,Q92,0)</f>
-        <v>15303.533994768944</v>
-      </c>
-    </row>
-    <row r="93" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I92,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I92,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I92,$C$20,$H$5,$H$6)</f>
+        <v>21007.131506738697</v>
+      </c>
+      <c r="M92" s="1">
+        <f>IF(I92&gt;$C$40,L92,0)</f>
+        <v>21007.131506738697</v>
+      </c>
+      <c r="N92" s="1">
+        <f>IF(I92&gt;$C$39,L92,0)</f>
+        <v>21007.131506738697</v>
+      </c>
+    </row>
+    <row r="93" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I93" s="1">
         <f t="shared" si="1"/>
         <v>99.823529411764611</v>
       </c>
       <c r="J93" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I93,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P93" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I93,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q93" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I93,$C$20,$H$5,$H$6)</f>
-        <v>15523.073272681424</v>
-      </c>
-      <c r="R93" s="1">
-        <f>IF(I93&gt;$C$40,Q93,0)</f>
-        <v>15523.073272681424</v>
-      </c>
-      <c r="S93" s="1">
-        <f>IF(I93&gt;$C$39,Q93,0)</f>
-        <v>15523.073272681424</v>
-      </c>
-    </row>
-    <row r="94" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I93,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I93,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I93,$C$20,$H$5,$H$6)</f>
+        <v>21308.485813463009</v>
+      </c>
+      <c r="M93" s="1">
+        <f>IF(I93&gt;$C$40,L93,0)</f>
+        <v>21308.485813463009</v>
+      </c>
+      <c r="N93" s="1">
+        <f>IF(I93&gt;$C$39,L93,0)</f>
+        <v>21308.485813463009</v>
+      </c>
+    </row>
+    <row r="94" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I94" s="1">
         <f t="shared" si="1"/>
         <v>101.23529411764696</v>
       </c>
       <c r="J94" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I94,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P94" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I94,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q94" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I94,$C$20,$H$5,$H$6)</f>
-        <v>15742.603167986241</v>
-      </c>
-      <c r="R94" s="1">
-        <f>IF(I94&gt;$C$40,Q94,0)</f>
-        <v>15742.603167986241</v>
-      </c>
-      <c r="S94" s="1">
-        <f>IF(I94&gt;$C$39,Q94,0)</f>
-        <v>15742.603167986241</v>
-      </c>
-    </row>
-    <row r="95" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I94,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I94,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I94,$C$20,$H$5,$H$6)</f>
+        <v>21609.838040136809</v>
+      </c>
+      <c r="M94" s="1">
+        <f>IF(I94&gt;$C$40,L94,0)</f>
+        <v>21609.838040136809</v>
+      </c>
+      <c r="N94" s="1">
+        <f>IF(I94&gt;$C$39,L94,0)</f>
+        <v>21609.838040136809</v>
+      </c>
+    </row>
+    <row r="95" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I95" s="1">
         <f t="shared" si="1"/>
         <v>102.64705882352931</v>
       </c>
       <c r="J95" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I95,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P95" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I95,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q95" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I95,$C$20,$H$5,$H$6)</f>
-        <v>15962.141160610248</v>
-      </c>
-      <c r="R95" s="1">
-        <f>IF(I95&gt;$C$40,Q95,0)</f>
-        <v>15962.141160610248</v>
-      </c>
-      <c r="S95" s="1">
-        <f>IF(I95&gt;$C$39,Q95,0)</f>
-        <v>15962.141160610248</v>
-      </c>
-    </row>
-    <row r="96" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I95,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I95,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I95,$C$20,$H$5,$H$6)</f>
+        <v>21911.208212337555</v>
+      </c>
+      <c r="M95" s="1">
+        <f>IF(I95&gt;$C$40,L95,0)</f>
+        <v>21911.208212337555</v>
+      </c>
+      <c r="N95" s="1">
+        <f>IF(I95&gt;$C$39,L95,0)</f>
+        <v>21911.208212337555</v>
+      </c>
+    </row>
+    <row r="96" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I96" s="1">
         <f t="shared" si="1"/>
         <v>104.05882352941165</v>
       </c>
       <c r="J96" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I96,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P96" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I96,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I96,$C$20,$H$5,$H$6)</f>
-        <v>16181.681895182715</v>
-      </c>
-      <c r="R96" s="1">
-        <f>IF(I96&gt;$C$40,Q96,0)</f>
-        <v>16181.681895182715</v>
-      </c>
-      <c r="S96" s="1">
-        <f>IF(I96&gt;$C$39,Q96,0)</f>
-        <v>16181.681895182715</v>
-      </c>
-    </row>
-    <row r="97" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I96,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I96,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I96,$C$20,$H$5,$H$6)</f>
+        <v>22212.560704117746</v>
+      </c>
+      <c r="M96" s="1">
+        <f>IF(I96&gt;$C$40,L96,0)</f>
+        <v>22212.560704117746</v>
+      </c>
+      <c r="N96" s="1">
+        <f>IF(I96&gt;$C$39,L96,0)</f>
+        <v>22212.560704117746</v>
+      </c>
+    </row>
+    <row r="97" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I97" s="1">
         <f t="shared" si="1"/>
         <v>105.470588235294</v>
       </c>
       <c r="J97" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I97,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P97" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I97,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q97" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I97,$C$20,$H$5,$H$6)</f>
-        <v>16401.218645360688</v>
-      </c>
-      <c r="R97" s="1">
-        <f>IF(I97&gt;$C$40,Q97,0)</f>
-        <v>16401.218645360688</v>
-      </c>
-      <c r="S97" s="1">
-        <f>IF(I97&gt;$C$39,Q97,0)</f>
-        <v>16401.218645360688</v>
-      </c>
-    </row>
-    <row r="98" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I97,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I97,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I97,$C$20,$H$5,$H$6)</f>
+        <v>22513.922066695741</v>
+      </c>
+      <c r="M97" s="1">
+        <f>IF(I97&gt;$C$40,L97,0)</f>
+        <v>22513.922066695741</v>
+      </c>
+      <c r="N97" s="1">
+        <f>IF(I97&gt;$C$39,L97,0)</f>
+        <v>22513.922066695741</v>
+      </c>
+    </row>
+    <row r="98" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I98" s="1">
         <f t="shared" si="1"/>
         <v>106.88235294117635</v>
       </c>
       <c r="J98" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I98,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P98" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I98,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q98" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I98,$C$20,$H$5,$H$6)</f>
-        <v>16620.743313822204</v>
-      </c>
-      <c r="R98" s="1">
-        <f>IF(I98&gt;$C$40,Q98,0)</f>
-        <v>16620.743313822204</v>
-      </c>
-      <c r="S98" s="1">
-        <f>IF(I98&gt;$C$39,Q98,0)</f>
-        <v>16620.743313822204</v>
-      </c>
-    </row>
-    <row r="99" spans="9:19" x14ac:dyDescent="0.2">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I98,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I98,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I98,$C$20,$H$5,$H$6)</f>
+        <v>22815.279840169253</v>
+      </c>
+      <c r="M98" s="1">
+        <f>IF(I98&gt;$C$40,L98,0)</f>
+        <v>22815.279840169253</v>
+      </c>
+      <c r="N98" s="1">
+        <f>IF(I98&gt;$C$39,L98,0)</f>
+        <v>22815.279840169253</v>
+      </c>
+    </row>
+    <row r="99" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I99" s="1">
         <f t="shared" si="1"/>
         <v>108.2941176470587</v>
       </c>
       <c r="J99" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I99,$H$5,$H$6)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="P99" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I99,$H$5,$H$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q99" s="1">
-        <f>[2]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I99,$C$20,$H$5,$H$6)</f>
-        <v>16840.282227571068</v>
-      </c>
-      <c r="R99" s="1">
-        <f>IF(I99&gt;$C$40,Q99,0)</f>
-        <v>16840.282227571068</v>
-      </c>
-      <c r="S99" s="1">
-        <f>IF(I99&gt;$C$39,Q99,0)</f>
-        <v>16840.282227571068</v>
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I99,$H$5,$H$6)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,$C$19,I99,$H$5,$H$6)</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <f>[1]!GLV_q_gas_vkr_sm3day($C$12,$C$17,I99,$C$20,$H$5,$H$6)</f>
+        <v>23116.625418842763</v>
+      </c>
+      <c r="M99" s="1">
+        <f>IF(I99&gt;$C$40,L99,0)</f>
+        <v>23116.625418842763</v>
+      </c>
+      <c r="N99" s="1">
+        <f>IF(I99&gt;$C$39,L99,0)</f>
+        <v>23116.625418842763</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:D5">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
@@ -6091,7 +5388,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
